--- a/INTLINE/data/566/PHSA/Per Capita Gross Domestic Product Gross National Income and Household Final Consumption Expenditure Q_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Per Capita Gross Domestic Product Gross National Income and Household Final Consumption Expenditure Q_historical.xlsx
@@ -1,37 +1,366 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr/>
-  <workbookProtection/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Per Capita Gross Domestic Prod" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Per Capita Gross Domestic Prod" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
+  <si>
+    <t>1998-Q1</t>
+  </si>
+  <si>
+    <t>1998-Q2</t>
+  </si>
+  <si>
+    <t>1998-Q3</t>
+  </si>
+  <si>
+    <t>1998-Q4</t>
+  </si>
+  <si>
+    <t>1999-Q1</t>
+  </si>
+  <si>
+    <t>1999-Q2</t>
+  </si>
+  <si>
+    <t>1999-Q3</t>
+  </si>
+  <si>
+    <t>1999-Q4</t>
+  </si>
+  <si>
+    <t>2000-Q1</t>
+  </si>
+  <si>
+    <t>2000-Q2</t>
+  </si>
+  <si>
+    <t>2000-Q3</t>
+  </si>
+  <si>
+    <t>2000-Q4</t>
+  </si>
+  <si>
+    <t>2001-Q1</t>
+  </si>
+  <si>
+    <t>2001-Q2</t>
+  </si>
+  <si>
+    <t>2001-Q3</t>
+  </si>
+  <si>
+    <t>2001-Q4</t>
+  </si>
+  <si>
+    <t>2002-Q1</t>
+  </si>
+  <si>
+    <t>2002-Q2</t>
+  </si>
+  <si>
+    <t>2002-Q3</t>
+  </si>
+  <si>
+    <t>2002-Q4</t>
+  </si>
+  <si>
+    <t>2003-Q1</t>
+  </si>
+  <si>
+    <t>2003-Q2</t>
+  </si>
+  <si>
+    <t>2003-Q3</t>
+  </si>
+  <si>
+    <t>2003-Q4</t>
+  </si>
+  <si>
+    <t>2004-Q1</t>
+  </si>
+  <si>
+    <t>2004-Q2</t>
+  </si>
+  <si>
+    <t>2004-Q3</t>
+  </si>
+  <si>
+    <t>2004-Q4</t>
+  </si>
+  <si>
+    <t>2005-Q1</t>
+  </si>
+  <si>
+    <t>2005-Q2</t>
+  </si>
+  <si>
+    <t>2005-Q3</t>
+  </si>
+  <si>
+    <t>2005-Q4</t>
+  </si>
+  <si>
+    <t>2006-Q1</t>
+  </si>
+  <si>
+    <t>2006-Q2</t>
+  </si>
+  <si>
+    <t>2006-Q3</t>
+  </si>
+  <si>
+    <t>2006-Q4</t>
+  </si>
+  <si>
+    <t>2007-Q1</t>
+  </si>
+  <si>
+    <t>2007-Q2</t>
+  </si>
+  <si>
+    <t>2007-Q3</t>
+  </si>
+  <si>
+    <t>2007-Q4</t>
+  </si>
+  <si>
+    <t>2008-Q1</t>
+  </si>
+  <si>
+    <t>2008-Q2</t>
+  </si>
+  <si>
+    <t>2008-Q3</t>
+  </si>
+  <si>
+    <t>2008-Q4</t>
+  </si>
+  <si>
+    <t>2009-Q1</t>
+  </si>
+  <si>
+    <t>2009-Q2</t>
+  </si>
+  <si>
+    <t>2009-Q3</t>
+  </si>
+  <si>
+    <t>2009-Q4</t>
+  </si>
+  <si>
+    <t>2010-Q1</t>
+  </si>
+  <si>
+    <t>2010-Q2</t>
+  </si>
+  <si>
+    <t>2010-Q3</t>
+  </si>
+  <si>
+    <t>2010-Q4</t>
+  </si>
+  <si>
+    <t>2011-Q1</t>
+  </si>
+  <si>
+    <t>2011-Q2</t>
+  </si>
+  <si>
+    <t>2011-Q3</t>
+  </si>
+  <si>
+    <t>2011-Q4</t>
+  </si>
+  <si>
+    <t>2012-Q1</t>
+  </si>
+  <si>
+    <t>2012-Q2</t>
+  </si>
+  <si>
+    <t>2012-Q3</t>
+  </si>
+  <si>
+    <t>2012-Q4</t>
+  </si>
+  <si>
+    <t>2013-Q1</t>
+  </si>
+  <si>
+    <t>2013-Q2</t>
+  </si>
+  <si>
+    <t>2013-Q3</t>
+  </si>
+  <si>
+    <t>2013-Q4</t>
+  </si>
+  <si>
+    <t>2014-Q1</t>
+  </si>
+  <si>
+    <t>2014-Q2</t>
+  </si>
+  <si>
+    <t>2014-Q3</t>
+  </si>
+  <si>
+    <t>2014-Q4</t>
+  </si>
+  <si>
+    <t>2015-Q1</t>
+  </si>
+  <si>
+    <t>2015-Q2</t>
+  </si>
+  <si>
+    <t>2015-Q3</t>
+  </si>
+  <si>
+    <t>2015-Q4</t>
+  </si>
+  <si>
+    <t>2016-Q1</t>
+  </si>
+  <si>
+    <t>2016-Q2</t>
+  </si>
+  <si>
+    <t>2016-Q3</t>
+  </si>
+  <si>
+    <t>2016-Q4</t>
+  </si>
+  <si>
+    <t>2017-Q1</t>
+  </si>
+  <si>
+    <t>2017-Q2</t>
+  </si>
+  <si>
+    <t>2017-Q3</t>
+  </si>
+  <si>
+    <t>2017-Q4</t>
+  </si>
+  <si>
+    <t>2018-Q1</t>
+  </si>
+  <si>
+    <t>2018-Q2</t>
+  </si>
+  <si>
+    <t>2018-Q3</t>
+  </si>
+  <si>
+    <t>2018-Q4</t>
+  </si>
+  <si>
+    <t>2019-Q1</t>
+  </si>
+  <si>
+    <t>2019-Q2</t>
+  </si>
+  <si>
+    <t>2019-Q3</t>
+  </si>
+  <si>
+    <t>2019-Q4</t>
+  </si>
+  <si>
+    <t>2020-Q1</t>
+  </si>
+  <si>
+    <t>2020-Q2</t>
+  </si>
+  <si>
+    <t>2020-Q3</t>
+  </si>
+  <si>
+    <t>2020-Q4</t>
+  </si>
+  <si>
+    <t>2021-Q1</t>
+  </si>
+  <si>
+    <t>2021-Q2</t>
+  </si>
+  <si>
+    <t>2021-Q3</t>
+  </si>
+  <si>
+    <t>2021-Q4</t>
+  </si>
+  <si>
+    <t>2022-Q1</t>
+  </si>
+  <si>
+    <t>2022-Q2</t>
+  </si>
+  <si>
+    <t>2022-Q3</t>
+  </si>
+  <si>
+    <t>2022-Q4</t>
+  </si>
+  <si>
+    <t>Per Capita Gross Domestic Product at current prices</t>
+  </si>
+  <si>
+    <t>Per Capita Gross National Income at current prices</t>
+  </si>
+  <si>
+    <t>Per Capita Household Final Consumption Expenditure at current prices</t>
+  </si>
+  <si>
+    <t>Per Capita Gross Domestic Product at constant prices</t>
+  </si>
+  <si>
+    <t>Per Capita Gross National Income at constant prices</t>
+  </si>
+  <si>
+    <t>Per Capita Household Final Consumption Expenditure at constant prices</t>
+  </si>
+  <si>
+    <t>..</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
   <fonts count="2">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,10 +375,18 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -57,14 +394,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -353,2400 +691,2146 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:CW7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q1</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q2</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q3</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>1998-Q4</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q1</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q2</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q3</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>1999-Q4</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q1</t>
-        </is>
-      </c>
-      <c r="K1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q2</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q3</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>2000-Q4</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q1</t>
-        </is>
-      </c>
-      <c r="O1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q2</t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q3</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>2001-Q4</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q1</t>
-        </is>
-      </c>
-      <c r="S1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q2</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q3</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>2002-Q4</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q1</t>
-        </is>
-      </c>
-      <c r="W1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q2</t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q3</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>2003-Q4</t>
-        </is>
-      </c>
-      <c r="Z1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q1</t>
-        </is>
-      </c>
-      <c r="AA1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q2</t>
-        </is>
-      </c>
-      <c r="AB1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q3</t>
-        </is>
-      </c>
-      <c r="AC1" s="1" t="inlineStr">
-        <is>
-          <t>2004-Q4</t>
-        </is>
-      </c>
-      <c r="AD1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q1</t>
-        </is>
-      </c>
-      <c r="AE1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q2</t>
-        </is>
-      </c>
-      <c r="AF1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q3</t>
-        </is>
-      </c>
-      <c r="AG1" s="1" t="inlineStr">
-        <is>
-          <t>2005-Q4</t>
-        </is>
-      </c>
-      <c r="AH1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q1</t>
-        </is>
-      </c>
-      <c r="AI1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q2</t>
-        </is>
-      </c>
-      <c r="AJ1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q3</t>
-        </is>
-      </c>
-      <c r="AK1" s="1" t="inlineStr">
-        <is>
-          <t>2006-Q4</t>
-        </is>
-      </c>
-      <c r="AL1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q1</t>
-        </is>
-      </c>
-      <c r="AM1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q2</t>
-        </is>
-      </c>
-      <c r="AN1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q3</t>
-        </is>
-      </c>
-      <c r="AO1" s="1" t="inlineStr">
-        <is>
-          <t>2007-Q4</t>
-        </is>
-      </c>
-      <c r="AP1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q1</t>
-        </is>
-      </c>
-      <c r="AQ1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q2</t>
-        </is>
-      </c>
-      <c r="AR1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q3</t>
-        </is>
-      </c>
-      <c r="AS1" s="1" t="inlineStr">
-        <is>
-          <t>2008-Q4</t>
-        </is>
-      </c>
-      <c r="AT1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q1</t>
-        </is>
-      </c>
-      <c r="AU1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q2</t>
-        </is>
-      </c>
-      <c r="AV1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q3</t>
-        </is>
-      </c>
-      <c r="AW1" s="1" t="inlineStr">
-        <is>
-          <t>2009-Q4</t>
-        </is>
-      </c>
-      <c r="AX1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q1</t>
-        </is>
-      </c>
-      <c r="AY1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q2</t>
-        </is>
-      </c>
-      <c r="AZ1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q3</t>
-        </is>
-      </c>
-      <c r="BA1" s="1" t="inlineStr">
-        <is>
-          <t>2010-Q4</t>
-        </is>
-      </c>
-      <c r="BB1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q1</t>
-        </is>
-      </c>
-      <c r="BC1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q2</t>
-        </is>
-      </c>
-      <c r="BD1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q3</t>
-        </is>
-      </c>
-      <c r="BE1" s="1" t="inlineStr">
-        <is>
-          <t>2011-Q4</t>
-        </is>
-      </c>
-      <c r="BF1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q1</t>
-        </is>
-      </c>
-      <c r="BG1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q2</t>
-        </is>
-      </c>
-      <c r="BH1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q3</t>
-        </is>
-      </c>
-      <c r="BI1" s="1" t="inlineStr">
-        <is>
-          <t>2012-Q4</t>
-        </is>
-      </c>
-      <c r="BJ1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q1</t>
-        </is>
-      </c>
-      <c r="BK1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q2</t>
-        </is>
-      </c>
-      <c r="BL1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q3</t>
-        </is>
-      </c>
-      <c r="BM1" s="1" t="inlineStr">
-        <is>
-          <t>2013-Q4</t>
-        </is>
-      </c>
-      <c r="BN1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q1</t>
-        </is>
-      </c>
-      <c r="BO1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q2</t>
-        </is>
-      </c>
-      <c r="BP1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q3</t>
-        </is>
-      </c>
-      <c r="BQ1" s="1" t="inlineStr">
-        <is>
-          <t>2014-Q4</t>
-        </is>
-      </c>
-      <c r="BR1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q1</t>
-        </is>
-      </c>
-      <c r="BS1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q2</t>
-        </is>
-      </c>
-      <c r="BT1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q3</t>
-        </is>
-      </c>
-      <c r="BU1" s="1" t="inlineStr">
-        <is>
-          <t>2015-Q4</t>
-        </is>
-      </c>
-      <c r="BV1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q1</t>
-        </is>
-      </c>
-      <c r="BW1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q2</t>
-        </is>
-      </c>
-      <c r="BX1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q3</t>
-        </is>
-      </c>
-      <c r="BY1" s="1" t="inlineStr">
-        <is>
-          <t>2016-Q4</t>
-        </is>
-      </c>
-      <c r="BZ1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q1</t>
-        </is>
-      </c>
-      <c r="CA1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q2</t>
-        </is>
-      </c>
-      <c r="CB1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q3</t>
-        </is>
-      </c>
-      <c r="CC1" s="1" t="inlineStr">
-        <is>
-          <t>2017-Q4</t>
-        </is>
-      </c>
-      <c r="CD1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q1</t>
-        </is>
-      </c>
-      <c r="CE1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q2</t>
-        </is>
-      </c>
-      <c r="CF1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q3</t>
-        </is>
-      </c>
-      <c r="CG1" s="1" t="inlineStr">
-        <is>
-          <t>2018-Q4</t>
-        </is>
-      </c>
-      <c r="CH1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q1</t>
-        </is>
-      </c>
-      <c r="CI1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q2</t>
-        </is>
-      </c>
-      <c r="CJ1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q3</t>
-        </is>
-      </c>
-      <c r="CK1" s="1" t="inlineStr">
-        <is>
-          <t>2019-Q4</t>
-        </is>
-      </c>
-      <c r="CL1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q1</t>
-        </is>
-      </c>
-      <c r="CM1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q2</t>
-        </is>
-      </c>
-      <c r="CN1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q3</t>
-        </is>
-      </c>
-      <c r="CO1" s="1" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="CP1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="CQ1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="CR1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="CS1" s="1" t="inlineStr">
-        <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="CT1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="CU1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="CV1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q3</t>
-        </is>
-      </c>
-      <c r="CW1" s="1" t="inlineStr">
-        <is>
-          <t>2022-Q4</t>
-        </is>
+    <row r="1" spans="1:101">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="U1" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="V1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="W1" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="X1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="Y1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Z1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="AA1" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AB1" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AC1" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD1" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AE1" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AF1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AG1" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AH1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AI1" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AJ1" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AK1" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AL1" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AM1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AN1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AO1" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AP1" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AQ1" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AR1" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AS1" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AT1" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AU1" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AV1" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AW1" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AX1" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AY1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ1" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="BA1" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BB1" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BC1" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BD1" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BE1" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BF1" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BG1" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BH1" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BI1" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BJ1" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BK1" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BL1" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BM1" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BN1" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BO1" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BP1" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BQ1" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BR1" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BS1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BT1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BU1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BV1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BW1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BX1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BY1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BZ1" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="CA1" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CB1" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CC1" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CD1" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CE1" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CF1" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CG1" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CH1" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="CI1" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="CJ1" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="CK1" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="CL1" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="CM1" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="CN1" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="CO1" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="CP1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="CQ1" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="CR1" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="CS1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="CT1" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="CU1" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="CV1" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="CW1" s="1" t="s">
+        <v>99</v>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" s="1" t="inlineStr">
-        <is>
-          <t>Per Capita Gross Domestic Product at current prices</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
+    <row r="2" spans="1:101">
+      <c r="A2" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="B2">
         <v>9160.72526556469</v>
       </c>
-      <c r="C2" t="n">
+      <c r="C2">
         <v>9481.12956907284</v>
       </c>
-      <c r="D2" t="n">
+      <c r="D2">
         <v>9607.18923919665</v>
       </c>
-      <c r="E2" t="n">
+      <c r="E2">
         <v>10919.9170146</v>
       </c>
-      <c r="F2" t="n">
+      <c r="F2">
         <v>9764.272095990929</v>
       </c>
-      <c r="G2" t="n">
+      <c r="G2">
         <v>10218.5458532582</v>
       </c>
-      <c r="H2" t="n">
+      <c r="H2">
         <v>10344.2609348413</v>
       </c>
-      <c r="I2" t="n">
+      <c r="I2">
         <v>11796.9889397654</v>
       </c>
-      <c r="J2" t="n">
+      <c r="J2">
         <v>11173.339846</v>
       </c>
-      <c r="K2" t="n">
+      <c r="K2">
         <v>11822.197899</v>
       </c>
-      <c r="L2" t="n">
+      <c r="L2">
         <v>11873.755596</v>
       </c>
-      <c r="M2" t="n">
+      <c r="M2">
         <v>13297.95969</v>
       </c>
-      <c r="N2" t="n">
+      <c r="N2">
         <v>11904.391618</v>
       </c>
-      <c r="O2" t="n">
+      <c r="O2">
         <v>12662.979075</v>
       </c>
-      <c r="P2" t="n">
+      <c r="P2">
         <v>12679.423062</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="Q2">
         <v>14064.498885</v>
       </c>
-      <c r="R2" t="n">
+      <c r="R2">
         <v>12670.599559</v>
       </c>
-      <c r="S2" t="n">
+      <c r="S2">
         <v>13449.156077</v>
       </c>
-      <c r="T2" t="n">
+      <c r="T2">
         <v>13201.866301</v>
       </c>
-      <c r="U2" t="n">
+      <c r="U2">
         <v>15000.945993</v>
       </c>
-      <c r="V2" t="n">
+      <c r="V2">
         <v>13457.847716</v>
       </c>
-      <c r="W2" t="n">
+      <c r="W2">
         <v>14077.691968</v>
       </c>
-      <c r="X2" t="n">
+      <c r="X2">
         <v>14070.290837</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Y2">
         <v>16113.717541</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="Z2">
         <v>14790.276949</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AA2">
         <v>15710.60146</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AB2">
         <v>15558.086597</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AC2">
         <v>17797.640162</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AD2">
         <v>16055.570783</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AE2">
         <v>17185.706002</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AF2">
         <v>16947.360957</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AG2">
         <v>19427.524571</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AH2">
         <v>17408.506664</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AI2">
         <v>18827.989233</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AJ2">
         <v>18306.986298</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AK2">
         <v>21085.251483</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AL2">
         <v>18858.476899</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AM2">
         <v>20263.923115</v>
       </c>
-      <c r="AN2" t="n">
+      <c r="AN2">
         <v>19648.552759</v>
       </c>
-      <c r="AO2" t="n">
+      <c r="AO2">
         <v>22826.22208</v>
       </c>
-      <c r="AP2" t="n">
+      <c r="AP2">
         <v>20134.096696</v>
       </c>
-      <c r="AQ2" t="n">
+      <c r="AQ2">
         <v>22550.463461</v>
       </c>
-      <c r="AR2" t="n">
+      <c r="AR2">
         <v>22209.464441</v>
       </c>
-      <c r="AS2" t="n">
+      <c r="AS2">
         <v>24739.063912</v>
       </c>
-      <c r="AT2" t="n">
+      <c r="AT2">
         <v>20926.662673</v>
       </c>
-      <c r="AU2" t="n">
+      <c r="AU2">
         <v>22762.937608</v>
       </c>
-      <c r="AV2" t="n">
+      <c r="AV2">
         <v>22238.264893</v>
       </c>
-      <c r="AW2" t="n">
+      <c r="AW2">
         <v>25874.122771</v>
       </c>
-      <c r="AX2" t="n">
+      <c r="AX2">
         <v>23298.283367</v>
       </c>
-      <c r="AY2" t="n">
+      <c r="AY2">
         <v>25369.462986</v>
       </c>
-      <c r="AZ2" t="n">
+      <c r="AZ2">
         <v>24370.701996</v>
       </c>
-      <c r="BA2" t="n">
+      <c r="BA2">
         <v>28069.354344</v>
       </c>
-      <c r="BB2" t="n">
+      <c r="BB2">
         <v>25035.020482</v>
       </c>
-      <c r="BC2" t="n">
+      <c r="BC2">
         <v>26984.73105</v>
       </c>
-      <c r="BD2" t="n">
+      <c r="BD2">
         <v>25651.142984</v>
       </c>
-      <c r="BE2" t="n">
+      <c r="BE2">
         <v>29653.17034</v>
       </c>
-      <c r="BF2" t="n">
+      <c r="BF2">
         <v>26599.781147</v>
       </c>
-      <c r="BG2" t="n">
+      <c r="BG2">
         <v>28719.387075</v>
       </c>
-      <c r="BH2" t="n">
+      <c r="BH2">
         <v>27771.737381</v>
       </c>
-      <c r="BI2" t="n">
+      <c r="BI2">
         <v>32029.748117</v>
       </c>
-      <c r="BJ2" t="n">
+      <c r="BJ2">
         <v>28579.67819</v>
       </c>
-      <c r="BK2" t="n">
+      <c r="BK2">
         <v>30738.486058</v>
       </c>
-      <c r="BL2" t="n">
+      <c r="BL2">
         <v>29804.993097</v>
       </c>
-      <c r="BM2" t="n">
+      <c r="BM2">
         <v>34322.263407</v>
       </c>
-      <c r="BN2" t="n">
+      <c r="BN2">
         <v>30805.330352</v>
       </c>
-      <c r="BO2" t="n">
+      <c r="BO2">
         <v>33322.608716</v>
       </c>
-      <c r="BP2" t="n">
+      <c r="BP2">
         <v>31963.158914</v>
       </c>
-      <c r="BQ2" t="n">
+      <c r="BQ2">
         <v>37110.748394</v>
       </c>
-      <c r="BR2" t="n">
+      <c r="BR2">
         <v>32044.637091</v>
       </c>
-      <c r="BS2" t="n">
+      <c r="BS2">
         <v>34795.811849</v>
       </c>
-      <c r="BT2" t="n">
+      <c r="BT2">
         <v>33030.559104</v>
       </c>
-      <c r="BU2" t="n">
+      <c r="BU2">
         <v>38666.823084</v>
       </c>
-      <c r="BV2" t="n">
+      <c r="BV2">
         <v>33806.396898</v>
       </c>
-      <c r="BW2" t="n">
+      <c r="BW2">
         <v>37128.672481</v>
       </c>
-      <c r="BX2" t="n">
+      <c r="BX2">
         <v>35550.296859</v>
       </c>
-      <c r="BY2" t="n">
+      <c r="BY2">
         <v>41368.46511</v>
       </c>
-      <c r="BZ2" t="n">
+      <c r="BZ2">
         <v>36239.000846</v>
       </c>
-      <c r="CA2" t="n">
+      <c r="CA2">
         <v>40034.020412</v>
       </c>
-      <c r="CB2" t="n">
+      <c r="CB2">
         <v>38571.099894</v>
       </c>
-      <c r="CC2" t="n">
+      <c r="CC2">
         <v>44365.383437</v>
       </c>
-      <c r="CD2" t="n">
+      <c r="CD2">
         <v>39070.101571</v>
       </c>
-      <c r="CE2" t="n">
+      <c r="CE2">
         <v>43363.71292</v>
       </c>
-      <c r="CF2" t="n">
+      <c r="CF2">
         <v>42080.329552</v>
       </c>
-      <c r="CG2" t="n">
+      <c r="CG2">
         <v>48473.443227</v>
       </c>
-      <c r="CH2" t="n">
+      <c r="CH2">
         <v>41548.496746</v>
       </c>
-      <c r="CI2" t="n">
+      <c r="CI2">
         <v>45516.398916</v>
       </c>
-      <c r="CJ2" t="n">
+      <c r="CJ2">
         <v>44048.596541</v>
       </c>
-      <c r="CK2" t="n">
+      <c r="CK2">
         <v>51085.493365</v>
       </c>
-      <c r="CL2" t="n">
+      <c r="CL2">
         <v>41182.745824</v>
       </c>
-      <c r="CM2" t="n">
+      <c r="CM2">
         <v>38175.790586</v>
       </c>
-      <c r="CN2" t="n">
+      <c r="CN2">
         <v>38659.842386</v>
       </c>
-      <c r="CO2" t="n">
+      <c r="CO2">
         <v>47272.772313</v>
       </c>
-      <c r="CP2" t="n">
+      <c r="CP2">
         <v>39928.436224</v>
       </c>
-      <c r="CQ2" t="n">
+      <c r="CQ2">
         <v>43438.626246</v>
       </c>
-      <c r="CR2" t="n">
+      <c r="CR2">
         <v>41782.044483</v>
       </c>
-      <c r="CS2" t="n">
+      <c r="CS2">
         <v>51221.453431</v>
       </c>
-      <c r="CT2" t="n">
+      <c r="CT2">
         <v>44458.8636</v>
       </c>
-      <c r="CU2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CV2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CW2" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="CU2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV2" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW2" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="3">
-      <c r="A3" s="1" t="inlineStr">
-        <is>
-          <t>Per Capita Gross National Income at current prices</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
+    <row r="3" spans="1:101">
+      <c r="A3" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="B3">
         <v>10524.5274191265</v>
       </c>
-      <c r="C3" t="n">
+      <c r="C3">
         <v>10842.3226090708</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D3">
         <v>11105.4037367015</v>
       </c>
-      <c r="E3" t="n">
+      <c r="E3">
         <v>12338.8836085201</v>
       </c>
-      <c r="F3" t="n">
+      <c r="F3">
         <v>11245.4655316312</v>
       </c>
-      <c r="G3" t="n">
+      <c r="G3">
         <v>11668.6235136928</v>
       </c>
-      <c r="H3" t="n">
+      <c r="H3">
         <v>11774.8019742562</v>
       </c>
-      <c r="I3" t="n">
+      <c r="I3">
         <v>13252.1284395525</v>
       </c>
-      <c r="J3" t="n">
+      <c r="J3">
         <v>12287.116782</v>
       </c>
-      <c r="K3" t="n">
+      <c r="K3">
         <v>12876.319079</v>
       </c>
-      <c r="L3" t="n">
+      <c r="L3">
         <v>12946.103334</v>
       </c>
-      <c r="M3" t="n">
+      <c r="M3">
         <v>14598.931399</v>
       </c>
-      <c r="N3" t="n">
+      <c r="N3">
         <v>13052.249099</v>
       </c>
-      <c r="O3" t="n">
+      <c r="O3">
         <v>14013.184118</v>
       </c>
-      <c r="P3" t="n">
+      <c r="P3">
         <v>13959.815349</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="Q3">
         <v>15201.369978</v>
       </c>
-      <c r="R3" t="n">
+      <c r="R3">
         <v>14029.161772</v>
       </c>
-      <c r="S3" t="n">
+      <c r="S3">
         <v>14653.867025</v>
       </c>
-      <c r="T3" t="n">
+      <c r="T3">
         <v>14390.886219</v>
       </c>
-      <c r="U3" t="n">
+      <c r="U3">
         <v>16428.727018</v>
       </c>
-      <c r="V3" t="n">
+      <c r="V3">
         <v>14738.562535</v>
       </c>
-      <c r="W3" t="n">
+      <c r="W3">
         <v>15464.145638</v>
       </c>
-      <c r="X3" t="n">
+      <c r="X3">
         <v>15449.68232</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Y3">
         <v>17500.288867</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="Z3">
         <v>16223.096057</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AA3">
         <v>17266.308054</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AB3">
         <v>17035.950982</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AC3">
         <v>19289.525268</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AD3">
         <v>17634.760455</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AE3">
         <v>18814.518001</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AF3">
         <v>18636.310058</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AG3">
         <v>21324.827332</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AH3">
         <v>19064.42508</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AI3">
         <v>20701.965375</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AJ3">
         <v>19857.247153</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AK3">
         <v>22962.709143</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AL3">
         <v>20433.29147</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AM3">
         <v>22246.1085</v>
       </c>
-      <c r="AN3" t="n">
+      <c r="AN3">
         <v>21560.592162</v>
       </c>
-      <c r="AO3" t="n">
+      <c r="AO3">
         <v>24686.080023</v>
       </c>
-      <c r="AP3" t="n">
+      <c r="AP3">
         <v>21821.537842</v>
       </c>
-      <c r="AQ3" t="n">
+      <c r="AQ3">
         <v>24719.306753</v>
       </c>
-      <c r="AR3" t="n">
+      <c r="AR3">
         <v>24274.802298</v>
       </c>
-      <c r="AS3" t="n">
+      <c r="AS3">
         <v>27211.917237</v>
       </c>
-      <c r="AT3" t="n">
+      <c r="AT3">
         <v>23164.671146</v>
       </c>
-      <c r="AU3" t="n">
+      <c r="AU3">
         <v>25589.732831</v>
       </c>
-      <c r="AV3" t="n">
+      <c r="AV3">
         <v>24940.738813</v>
       </c>
-      <c r="AW3" t="n">
+      <c r="AW3">
         <v>28708.614917</v>
       </c>
-      <c r="AX3" t="n">
+      <c r="AX3">
         <v>26023.482547</v>
       </c>
-      <c r="AY3" t="n">
+      <c r="AY3">
         <v>28351.72256</v>
       </c>
-      <c r="AZ3" t="n">
+      <c r="AZ3">
         <v>27157.888514</v>
       </c>
-      <c r="BA3" t="n">
+      <c r="BA3">
         <v>30921.548554</v>
       </c>
-      <c r="BB3" t="n">
+      <c r="BB3">
         <v>27819.697778</v>
       </c>
-      <c r="BC3" t="n">
+      <c r="BC3">
         <v>29875.538363</v>
       </c>
-      <c r="BD3" t="n">
+      <c r="BD3">
         <v>28416.05405</v>
       </c>
-      <c r="BE3" t="n">
+      <c r="BE3">
         <v>32796.901085</v>
       </c>
-      <c r="BF3" t="n">
+      <c r="BF3">
         <v>29441.901568</v>
       </c>
-      <c r="BG3" t="n">
+      <c r="BG3">
         <v>31998.104311</v>
       </c>
-      <c r="BH3" t="n">
+      <c r="BH3">
         <v>30913.677794</v>
       </c>
-      <c r="BI3" t="n">
+      <c r="BI3">
         <v>35470.717233</v>
       </c>
-      <c r="BJ3" t="n">
+      <c r="BJ3">
         <v>31946.853466</v>
       </c>
-      <c r="BK3" t="n">
+      <c r="BK3">
         <v>34187.487566</v>
       </c>
-      <c r="BL3" t="n">
+      <c r="BL3">
         <v>33637.131803</v>
       </c>
-      <c r="BM3" t="n">
+      <c r="BM3">
         <v>38190.409868</v>
       </c>
-      <c r="BN3" t="n">
+      <c r="BN3">
         <v>34605.109716</v>
       </c>
-      <c r="BO3" t="n">
+      <c r="BO3">
         <v>37142.084667</v>
       </c>
-      <c r="BP3" t="n">
+      <c r="BP3">
         <v>35752.328869</v>
       </c>
-      <c r="BQ3" t="n">
+      <c r="BQ3">
         <v>41055.965853</v>
       </c>
-      <c r="BR3" t="n">
+      <c r="BR3">
         <v>35864.317684</v>
       </c>
-      <c r="BS3" t="n">
+      <c r="BS3">
         <v>38661.438903</v>
       </c>
-      <c r="BT3" t="n">
+      <c r="BT3">
         <v>36879.042819</v>
       </c>
-      <c r="BU3" t="n">
+      <c r="BU3">
         <v>42966.631243</v>
       </c>
-      <c r="BV3" t="n">
+      <c r="BV3">
         <v>37876.765238</v>
       </c>
-      <c r="BW3" t="n">
+      <c r="BW3">
         <v>41165.568293</v>
       </c>
-      <c r="BX3" t="n">
+      <c r="BX3">
         <v>39563.705532</v>
       </c>
-      <c r="BY3" t="n">
+      <c r="BY3">
         <v>45671.373943</v>
       </c>
-      <c r="BZ3" t="n">
+      <c r="BZ3">
         <v>40583.241923</v>
       </c>
-      <c r="CA3" t="n">
+      <c r="CA3">
         <v>44424.707927</v>
       </c>
-      <c r="CB3" t="n">
+      <c r="CB3">
         <v>42985.447308</v>
       </c>
-      <c r="CC3" t="n">
+      <c r="CC3">
         <v>48784.508291</v>
       </c>
-      <c r="CD3" t="n">
+      <c r="CD3">
         <v>43595.153381</v>
       </c>
-      <c r="CE3" t="n">
+      <c r="CE3">
         <v>47802.564179</v>
       </c>
-      <c r="CF3" t="n">
+      <c r="CF3">
         <v>46907.83942</v>
       </c>
-      <c r="CG3" t="n">
+      <c r="CG3">
         <v>53127.220034</v>
       </c>
-      <c r="CH3" t="n">
+      <c r="CH3">
         <v>46197.541809</v>
       </c>
-      <c r="CI3" t="n">
+      <c r="CI3">
         <v>50039.464904</v>
       </c>
-      <c r="CJ3" t="n">
+      <c r="CJ3">
         <v>48715.942698</v>
       </c>
-      <c r="CK3" t="n">
+      <c r="CK3">
         <v>55494.238038</v>
       </c>
-      <c r="CL3" t="n">
+      <c r="CL3">
         <v>45363.150629</v>
       </c>
-      <c r="CM3" t="n">
+      <c r="CM3">
         <v>41580.97739</v>
       </c>
-      <c r="CN3" t="n">
+      <c r="CN3">
         <v>41733.995424</v>
       </c>
-      <c r="CO3" t="n">
+      <c r="CO3">
         <v>49153.86199</v>
       </c>
-      <c r="CP3" t="n">
+      <c r="CP3">
         <v>40960.344169</v>
       </c>
-      <c r="CQ3" t="n">
+      <c r="CQ3">
         <v>44975.940617</v>
       </c>
-      <c r="CR3" t="n">
+      <c r="CR3">
         <v>43281.679652</v>
       </c>
-      <c r="CS3" t="n">
+      <c r="CS3">
         <v>53453.468625</v>
       </c>
-      <c r="CT3" t="n">
+      <c r="CT3">
         <v>46610.547077</v>
       </c>
-      <c r="CU3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CV3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CW3" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="CU3" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV3" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW3" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="4">
-      <c r="A4" s="1" t="inlineStr">
-        <is>
-          <t>Per Capita Household Final Consumption Expenditure at current prices</t>
-        </is>
-      </c>
-      <c r="B4" t="n">
+    <row r="4" spans="1:101">
+      <c r="A4" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="B4">
         <v>6470.75454205079</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C4">
         <v>7063.92518825173</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D4">
         <v>7018.96100459238</v>
       </c>
-      <c r="E4" t="n">
+      <c r="E4">
         <v>7831.20073292522</v>
       </c>
-      <c r="F4" t="n">
+      <c r="F4">
         <v>7224.84358865125</v>
       </c>
-      <c r="G4" t="n">
+      <c r="G4">
         <v>7638.69758885126</v>
       </c>
-      <c r="H4" t="n">
+      <c r="H4">
         <v>7483.95271366757</v>
       </c>
-      <c r="I4" t="n">
+      <c r="I4">
         <v>8303.19481996134</v>
       </c>
-      <c r="J4" t="n">
+      <c r="J4">
         <v>7889.024379</v>
       </c>
-      <c r="K4" t="n">
+      <c r="K4">
         <v>8532.108225</v>
       </c>
-      <c r="L4" t="n">
+      <c r="L4">
         <v>8510.9311</v>
       </c>
-      <c r="M4" t="n">
+      <c r="M4">
         <v>9611.006627000001</v>
       </c>
-      <c r="N4" t="n">
+      <c r="N4">
         <v>8668.217159</v>
       </c>
-      <c r="O4" t="n">
+      <c r="O4">
         <v>9102.324385</v>
       </c>
-      <c r="P4" t="n">
+      <c r="P4">
         <v>9245.708853</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="Q4">
         <v>10389.434391</v>
       </c>
-      <c r="R4" t="n">
+      <c r="R4">
         <v>9128.375902</v>
       </c>
-      <c r="S4" t="n">
+      <c r="S4">
         <v>9784.609270999999</v>
       </c>
-      <c r="T4" t="n">
+      <c r="T4">
         <v>9929.558848999999</v>
       </c>
-      <c r="U4" t="n">
+      <c r="U4">
         <v>10868.449361</v>
       </c>
-      <c r="V4" t="n">
+      <c r="V4">
         <v>9879.766743</v>
       </c>
-      <c r="W4" t="n">
+      <c r="W4">
         <v>10374.706281</v>
       </c>
-      <c r="X4" t="n">
+      <c r="X4">
         <v>10494.97239</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Y4">
         <v>11677.954357</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="Z4">
         <v>10749.376435</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AA4">
         <v>11321.083354</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AB4">
         <v>11677.633531</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AC4">
         <v>13246.926697</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AD4">
         <v>11874.128869</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AE4">
         <v>12691.304359</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AF4">
         <v>12649.964002</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AG4">
         <v>14268.841643</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AH4">
         <v>12869.133683</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AI4">
         <v>13769.261357</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AJ4">
         <v>13564.953705</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AK4">
         <v>15217.408978</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AL4">
         <v>13630.790212</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AM4">
         <v>14586.477869</v>
       </c>
-      <c r="AN4" t="n">
+      <c r="AN4">
         <v>14385.38048</v>
       </c>
-      <c r="AO4" t="n">
+      <c r="AO4">
         <v>16356.918944</v>
       </c>
-      <c r="AP4" t="n">
+      <c r="AP4">
         <v>14859.993126</v>
       </c>
-      <c r="AQ4" t="n">
+      <c r="AQ4">
         <v>16209.616473</v>
       </c>
-      <c r="AR4" t="n">
+      <c r="AR4">
         <v>16297.454814</v>
       </c>
-      <c r="AS4" t="n">
+      <c r="AS4">
         <v>18230.901296</v>
       </c>
-      <c r="AT4" t="n">
+      <c r="AT4">
         <v>15719.36965</v>
       </c>
-      <c r="AU4" t="n">
+      <c r="AU4">
         <v>16796.816462</v>
       </c>
-      <c r="AV4" t="n">
+      <c r="AV4">
         <v>16195.27884</v>
       </c>
-      <c r="AW4" t="n">
+      <c r="AW4">
         <v>18483.71116</v>
       </c>
-      <c r="AX4" t="n">
+      <c r="AX4">
         <v>16649.055878</v>
       </c>
-      <c r="AY4" t="n">
+      <c r="AY4">
         <v>17591.082915</v>
       </c>
-      <c r="AZ4" t="n">
+      <c r="AZ4">
         <v>17098.709845</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BA4">
         <v>19633.06752</v>
       </c>
-      <c r="BB4" t="n">
+      <c r="BB4">
         <v>17984.09847</v>
       </c>
-      <c r="BC4" t="n">
+      <c r="BC4">
         <v>19261.636028</v>
       </c>
-      <c r="BD4" t="n">
+      <c r="BD4">
         <v>18613.294449</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BE4">
         <v>21553.217176</v>
       </c>
-      <c r="BF4" t="n">
+      <c r="BF4">
         <v>19675.308981</v>
       </c>
-      <c r="BG4" t="n">
+      <c r="BG4">
         <v>20480.759945</v>
       </c>
-      <c r="BH4" t="n">
+      <c r="BH4">
         <v>20123.609532</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BI4">
         <v>23247.647452</v>
       </c>
-      <c r="BJ4" t="n">
+      <c r="BJ4">
         <v>20941.20916</v>
       </c>
-      <c r="BK4" t="n">
+      <c r="BK4">
         <v>21677.57746</v>
       </c>
-      <c r="BL4" t="n">
+      <c r="BL4">
         <v>21460.025013</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BM4">
         <v>24815.824065</v>
       </c>
-      <c r="BN4" t="n">
+      <c r="BN4">
         <v>22373.119987</v>
       </c>
-      <c r="BO4" t="n">
+      <c r="BO4">
         <v>23160.244146</v>
       </c>
-      <c r="BP4" t="n">
+      <c r="BP4">
         <v>22966.348402</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BQ4">
         <v>26439.578517</v>
       </c>
-      <c r="BR4" t="n">
+      <c r="BR4">
         <v>23729.349525</v>
       </c>
-      <c r="BS4" t="n">
+      <c r="BS4">
         <v>24588.558829</v>
       </c>
-      <c r="BT4" t="n">
+      <c r="BT4">
         <v>24160.497184</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BU4">
         <v>27925.949191</v>
       </c>
-      <c r="BV4" t="n">
+      <c r="BV4">
         <v>25047.732613</v>
       </c>
-      <c r="BW4" t="n">
+      <c r="BW4">
         <v>26255.036447</v>
       </c>
-      <c r="BX4" t="n">
+      <c r="BX4">
         <v>25989.741978</v>
       </c>
-      <c r="BY4" t="n">
+      <c r="BY4">
         <v>29982.346269</v>
       </c>
-      <c r="BZ4" t="n">
+      <c r="BZ4">
         <v>26917.083439</v>
       </c>
-      <c r="CA4" t="n">
+      <c r="CA4">
         <v>28176.872406</v>
       </c>
-      <c r="CB4" t="n">
+      <c r="CB4">
         <v>27735.246396</v>
       </c>
-      <c r="CC4" t="n">
+      <c r="CC4">
         <v>32093.671145</v>
       </c>
-      <c r="CD4" t="n">
+      <c r="CD4">
         <v>29065.638353</v>
       </c>
-      <c r="CE4" t="n">
+      <c r="CE4">
         <v>30752.16561</v>
       </c>
-      <c r="CF4" t="n">
+      <c r="CF4">
         <v>30519.464921</v>
       </c>
-      <c r="CG4" t="n">
+      <c r="CG4">
         <v>35155.580412</v>
       </c>
-      <c r="CH4" t="n">
+      <c r="CH4">
         <v>31361.218745</v>
       </c>
-      <c r="CI4" t="n">
+      <c r="CI4">
         <v>32736.341938</v>
       </c>
-      <c r="CJ4" t="n">
+      <c r="CJ4">
         <v>32274.097582</v>
       </c>
-      <c r="CK4" t="n">
+      <c r="CK4">
         <v>37015.673526</v>
       </c>
-      <c r="CL4" t="n">
+      <c r="CL4">
         <v>31680.88327</v>
       </c>
-      <c r="CM4" t="n">
+      <c r="CM4">
         <v>28063.113844</v>
       </c>
-      <c r="CN4" t="n">
+      <c r="CN4">
         <v>29514.263081</v>
       </c>
-      <c r="CO4" t="n">
+      <c r="CO4">
         <v>34829.581633</v>
       </c>
-      <c r="CP4" t="n">
+      <c r="CP4">
         <v>31028.507929</v>
       </c>
-      <c r="CQ4" t="n">
+      <c r="CQ4">
         <v>30917.282429</v>
       </c>
-      <c r="CR4" t="n">
+      <c r="CR4">
         <v>32508.887502</v>
       </c>
-      <c r="CS4" t="n">
+      <c r="CS4">
         <v>38299.108323</v>
       </c>
-      <c r="CT4" t="n">
+      <c r="CT4">
         <v>34783.388008</v>
       </c>
-      <c r="CU4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CV4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CW4" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="CU4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV4" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW4" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>Per Capita Gross Domestic Product at constant prices</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
+    <row r="5" spans="1:101">
+      <c r="A5" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="B5">
         <v>21565.4274237486</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5">
         <v>21740.1494642787</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5">
         <v>21352.4083889297</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5">
         <v>23499.2794145231</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5">
         <v>21162.7729901395</v>
       </c>
-      <c r="G5" t="n">
+      <c r="G5">
         <v>21906.6800827005</v>
       </c>
-      <c r="H5" t="n">
+      <c r="H5">
         <v>21741.9049791349</v>
       </c>
-      <c r="I5" t="n">
+      <c r="I5">
         <v>24132.9880654324</v>
       </c>
-      <c r="J5" t="n">
+      <c r="J5">
         <v>21722.640621</v>
       </c>
-      <c r="K5" t="n">
+      <c r="K5">
         <v>22603.278127</v>
       </c>
-      <c r="L5" t="n">
+      <c r="L5">
         <v>22215.603087</v>
       </c>
-      <c r="M5" t="n">
+      <c r="M5">
         <v>24467.230374</v>
       </c>
-      <c r="N5" t="n">
+      <c r="N5">
         <v>21768.922757</v>
       </c>
-      <c r="O5" t="n">
+      <c r="O5">
         <v>22843.789138</v>
       </c>
-      <c r="P5" t="n">
+      <c r="P5">
         <v>22421.048581</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="Q5">
         <v>24754.184871</v>
       </c>
-      <c r="R5" t="n">
+      <c r="R5">
         <v>22139.979278</v>
       </c>
-      <c r="S5" t="n">
+      <c r="S5">
         <v>23188.123491</v>
       </c>
-      <c r="T5" t="n">
+      <c r="T5">
         <v>22546.357981</v>
       </c>
-      <c r="U5" t="n">
+      <c r="U5">
         <v>25353.865178</v>
       </c>
-      <c r="V5" t="n">
+      <c r="V5">
         <v>22691.064737</v>
       </c>
-      <c r="W5" t="n">
+      <c r="W5">
         <v>23716.432223</v>
       </c>
-      <c r="X5" t="n">
+      <c r="X5">
         <v>23313.492288</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Y5">
         <v>26273.407971</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="Z5">
         <v>23837.359153</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AA5">
         <v>24991.425299</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AB5">
         <v>24286.670318</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AC5">
         <v>27181.236671</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AD5">
         <v>24550.608223</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AE5">
         <v>25898.626648</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AF5">
         <v>24866.911251</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AG5">
         <v>27926.030492</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AH5">
         <v>25172.808412</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AI5">
         <v>26918.347298</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AJ5">
         <v>25552.309532</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AK5">
         <v>29058.039978</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AL5">
         <v>26233.786488</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AM5">
         <v>28235.334496</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AN5">
         <v>26731.407138</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AO5">
         <v>30389.653249</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AP5">
         <v>26838.08668</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AQ5">
         <v>29056.280036</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AR5">
         <v>27685.529821</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AS5">
         <v>30793.612131</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AT5">
         <v>26663.432917</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AU5">
         <v>29091.504392</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AV5">
         <v>27459.670807</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AW5">
         <v>30804.643108</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AX5">
         <v>28336.433348</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AY5">
         <v>30878.434955</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="AZ5">
         <v>28904.801086</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BA5">
         <v>32195.782915</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BB5">
         <v>29208.921783</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BC5">
         <v>31447.6794</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BD5">
         <v>29291.415612</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BE5">
         <v>32945.980774</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BF5">
         <v>30468.512634</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BG5">
         <v>32862.403365</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BH5">
         <v>30952.137906</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BI5">
         <v>34961.199092</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BJ5">
         <v>32259.994381</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BK5">
         <v>34771.721104</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BL5">
         <v>32508.66199</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BM5">
         <v>36255.386882</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BN5">
         <v>33567.548629</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BO5">
         <v>36607.962624</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BP5">
         <v>33907.858204</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BQ5">
         <v>38102.049215</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BR5">
         <v>34819.992963</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BS5">
         <v>38377.116318</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BT5">
         <v>35597.219898</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BU5">
         <v>40156.271296</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BV5">
         <v>36609.51172</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BW5">
         <v>40547.011005</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BX5">
         <v>37574.127541</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BY5">
         <v>42230.214953</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="BZ5">
         <v>38313.805304</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CA5">
         <v>42765.087049</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CB5">
         <v>39768.327999</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CC5">
         <v>44334.697552</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CD5">
         <v>40160.316746</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CE5">
         <v>44802.517471</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CF5">
         <v>41579.441547</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CG5">
         <v>46466.132475</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CH5">
         <v>41896.844509</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CI5">
         <v>46638.424949</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CJ5">
         <v>43579.316124</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CK5">
         <v>48839.330615</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CL5">
         <v>41040.79968</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CM5">
         <v>38217.953089</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CN5">
         <v>38019.891575</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CO5">
         <v>44218.137965</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CP5">
         <v>38953.482731</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CQ5">
         <v>42290.592662</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CR5">
         <v>40161.082403</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CS5">
         <v>47051.189483</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CT5">
         <v>41643.17185</v>
       </c>
-      <c r="CU5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CV5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CW5" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="CU5" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV5" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW5" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>Per Capita Gross National Income at constant prices</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
+    <row r="6" spans="1:101">
+      <c r="A6" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="B6">
         <v>22848.4323934496</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6">
         <v>22890.4755585873</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D6">
         <v>22750.2755031259</v>
       </c>
-      <c r="E6" t="n">
+      <c r="E6">
         <v>24561.8802227855</v>
       </c>
-      <c r="F6" t="n">
+      <c r="F6">
         <v>22503.226599289</v>
       </c>
-      <c r="G6" t="n">
+      <c r="G6">
         <v>23069.0017990516</v>
       </c>
-      <c r="H6" t="n">
+      <c r="H6">
         <v>22851.5358056008</v>
       </c>
-      <c r="I6" t="n">
+      <c r="I6">
         <v>25114.8575446469</v>
       </c>
-      <c r="J6" t="n">
+      <c r="J6">
         <v>24020.866626</v>
       </c>
-      <c r="K6" t="n">
+      <c r="K6">
         <v>24706.65928</v>
       </c>
-      <c r="L6" t="n">
+      <c r="L6">
         <v>24298.075306</v>
       </c>
-      <c r="M6" t="n">
+      <c r="M6">
         <v>26957.472281</v>
       </c>
-      <c r="N6" t="n">
+      <c r="N6">
         <v>23961.736578</v>
       </c>
-      <c r="O6" t="n">
+      <c r="O6">
         <v>25360.313866</v>
       </c>
-      <c r="P6" t="n">
+      <c r="P6">
         <v>24754.839241</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="Q6">
         <v>26822.333595</v>
       </c>
-      <c r="R6" t="n">
+      <c r="R6">
         <v>24626.623092</v>
       </c>
-      <c r="S6" t="n">
+      <c r="S6">
         <v>25343.948273</v>
       </c>
-      <c r="T6" t="n">
+      <c r="T6">
         <v>24634.454159</v>
       </c>
-      <c r="U6" t="n">
+      <c r="U6">
         <v>27879.267207</v>
       </c>
-      <c r="V6" t="n">
+      <c r="V6">
         <v>24977.268425</v>
       </c>
-      <c r="W6" t="n">
+      <c r="W6">
         <v>26115.46882</v>
       </c>
-      <c r="X6" t="n">
+      <c r="X6">
         <v>25705.782262</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Y6">
         <v>28647.548268</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="Z6">
         <v>26305.683603</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AA6">
         <v>27520.749121</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AB6">
         <v>26654.573015</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AC6">
         <v>29560.439925</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AD6">
         <v>27094.607477</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AE6">
         <v>28360.081288</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AF6">
         <v>27403.693892</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AG6">
         <v>30751.70373</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AH6">
         <v>27665.391779</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AI6">
         <v>29600.87554</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AJ6">
         <v>27761.447319</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AK6">
         <v>31744.638141</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AL6">
         <v>28526.19365</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AM6">
         <v>31007.766099</v>
       </c>
-      <c r="AN6" t="n">
+      <c r="AN6">
         <v>29378.109367</v>
       </c>
-      <c r="AO6" t="n">
+      <c r="AO6">
         <v>32983.744015</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AP6">
         <v>29215.881434</v>
       </c>
-      <c r="AQ6" t="n">
+      <c r="AQ6">
         <v>31860.389119</v>
       </c>
-      <c r="AR6" t="n">
+      <c r="AR6">
         <v>30271.718086</v>
       </c>
-      <c r="AS6" t="n">
+      <c r="AS6">
         <v>33953.064758</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AT6">
         <v>29610.695548</v>
       </c>
-      <c r="AU6" t="n">
+      <c r="AU6">
         <v>32703.519795</v>
       </c>
-      <c r="AV6" t="n">
+      <c r="AV6">
         <v>30847.10063</v>
       </c>
-      <c r="AW6" t="n">
+      <c r="AW6">
         <v>34460.284061</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AX6">
         <v>31832.527165</v>
       </c>
-      <c r="AY6" t="n">
+      <c r="AY6">
         <v>34513.921663</v>
       </c>
-      <c r="AZ6" t="n">
+      <c r="AZ6">
         <v>32245.633881</v>
       </c>
-      <c r="BA6" t="n">
+      <c r="BA6">
         <v>35734.891248</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BB6">
         <v>32610.325941</v>
       </c>
-      <c r="BC6" t="n">
+      <c r="BC6">
         <v>34794.842709</v>
       </c>
-      <c r="BD6" t="n">
+      <c r="BD6">
         <v>32476.786763</v>
       </c>
-      <c r="BE6" t="n">
+      <c r="BE6">
         <v>36638.596578</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BF6">
         <v>33822.358125</v>
       </c>
-      <c r="BG6" t="n">
+      <c r="BG6">
         <v>36576.861735</v>
       </c>
-      <c r="BH6" t="n">
+      <c r="BH6">
         <v>34504.463921</v>
       </c>
-      <c r="BI6" t="n">
+      <c r="BI6">
         <v>38890.270638</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BJ6">
         <v>36146.895254</v>
       </c>
-      <c r="BK6" t="n">
+      <c r="BK6">
         <v>38609.635431</v>
       </c>
-      <c r="BL6" t="n">
+      <c r="BL6">
         <v>36739.976041</v>
       </c>
-      <c r="BM6" t="n">
+      <c r="BM6">
         <v>40549.04101</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BN6">
         <v>37791.468083</v>
       </c>
-      <c r="BO6" t="n">
+      <c r="BO6">
         <v>40749.152544</v>
       </c>
-      <c r="BP6" t="n">
+      <c r="BP6">
         <v>37983.922616</v>
       </c>
-      <c r="BQ6" t="n">
+      <c r="BQ6">
         <v>42427.688674</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BR6">
         <v>39088.835743</v>
       </c>
-      <c r="BS6" t="n">
+      <c r="BS6">
         <v>42512.707658</v>
       </c>
-      <c r="BT6" t="n">
+      <c r="BT6">
         <v>39722.957692</v>
       </c>
-      <c r="BU6" t="n">
+      <c r="BU6">
         <v>44829.920715</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BV6">
         <v>41153.165267</v>
       </c>
-      <c r="BW6" t="n">
+      <c r="BW6">
         <v>44831.774625</v>
       </c>
-      <c r="BX6" t="n">
+      <c r="BX6">
         <v>41801.615698</v>
       </c>
-      <c r="BY6" t="n">
+      <c r="BY6">
         <v>46766.884398</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="BZ6">
         <v>43035.757082</v>
       </c>
-      <c r="CA6" t="n">
+      <c r="CA6">
         <v>47277.588037</v>
       </c>
-      <c r="CB6" t="n">
+      <c r="CB6">
         <v>44303.687549</v>
       </c>
-      <c r="CC6" t="n">
+      <c r="CC6">
         <v>48920.545137</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CD6">
         <v>44918.108715</v>
       </c>
-      <c r="CE6" t="n">
+      <c r="CE6">
         <v>49205.422209</v>
       </c>
-      <c r="CF6" t="n">
+      <c r="CF6">
         <v>46287.855969</v>
       </c>
-      <c r="CG6" t="n">
+      <c r="CG6">
         <v>51044.084565</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CH6">
         <v>46658.668143</v>
       </c>
-      <c r="CI6" t="n">
+      <c r="CI6">
         <v>51017.435248</v>
       </c>
-      <c r="CJ6" t="n">
+      <c r="CJ6">
         <v>48047.434817</v>
       </c>
-      <c r="CK6" t="n">
+      <c r="CK6">
         <v>53125.893026</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CL6">
         <v>45273.880277</v>
       </c>
-      <c r="CM6" t="n">
+      <c r="CM6">
         <v>41459.432026</v>
       </c>
-      <c r="CN6" t="n">
+      <c r="CN6">
         <v>40929.000448</v>
       </c>
-      <c r="CO6" t="n">
+      <c r="CO6">
         <v>46005.335928</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CP6">
         <v>39959.160192</v>
       </c>
-      <c r="CQ6" t="n">
+      <c r="CQ6">
         <v>43706.521884</v>
       </c>
-      <c r="CR6" t="n">
+      <c r="CR6">
         <v>41528.107725</v>
       </c>
-      <c r="CS6" t="n">
+      <c r="CS6">
         <v>49097.456046</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CT6">
         <v>43660.662689</v>
       </c>
-      <c r="CU6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CV6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CW6" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="CU6" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV6" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW6" t="s">
+        <v>106</v>
       </c>
     </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>Per Capita Household Final Consumption Expenditure at constant prices</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
+    <row r="7" spans="1:101">
+      <c r="A7" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B7">
         <v>15576.9227006331</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7">
         <v>16608.7286048602</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D7">
         <v>16233.7098871944</v>
       </c>
-      <c r="E7" t="n">
+      <c r="E7">
         <v>17980.9268155877</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7">
         <v>15913.6578368986</v>
       </c>
-      <c r="G7" t="n">
+      <c r="G7">
         <v>16921.794229155</v>
       </c>
-      <c r="H7" t="n">
+      <c r="H7">
         <v>16456.6042012295</v>
       </c>
-      <c r="I7" t="n">
+      <c r="I7">
         <v>18323.3347639675</v>
       </c>
-      <c r="J7" t="n">
+      <c r="J7">
         <v>16271.210129</v>
       </c>
-      <c r="K7" t="n">
+      <c r="K7">
         <v>17503.007345</v>
       </c>
-      <c r="L7" t="n">
+      <c r="L7">
         <v>17067.030093</v>
       </c>
-      <c r="M7" t="n">
+      <c r="M7">
         <v>18940.28407</v>
       </c>
-      <c r="N7" t="n">
+      <c r="N7">
         <v>16627.13025</v>
       </c>
-      <c r="O7" t="n">
+      <c r="O7">
         <v>17395.356206</v>
       </c>
-      <c r="P7" t="n">
+      <c r="P7">
         <v>17462.008438</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="Q7">
         <v>19503.172942</v>
       </c>
-      <c r="R7" t="n">
+      <c r="R7">
         <v>16859.033552</v>
       </c>
-      <c r="S7" t="n">
+      <c r="S7">
         <v>18111.960017</v>
       </c>
-      <c r="T7" t="n">
+      <c r="T7">
         <v>18172.987814</v>
       </c>
-      <c r="U7" t="n">
+      <c r="U7">
         <v>19919.664688</v>
       </c>
-      <c r="V7" t="n">
+      <c r="V7">
         <v>17632.400486</v>
       </c>
-      <c r="W7" t="n">
+      <c r="W7">
         <v>18591.993</v>
       </c>
-      <c r="X7" t="n">
+      <c r="X7">
         <v>18603.215448</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Y7">
         <v>20617.066046</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="Z7">
         <v>18416.953613</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AA7">
         <v>19038.635506</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AB7">
         <v>19301.924793</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AC7">
         <v>21572.89275</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AD7">
         <v>18951.234897</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AE7">
         <v>19801.783263</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AF7">
         <v>19624.904034</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AG7">
         <v>21872.721977</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AH7">
         <v>19245.179113</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AI7">
         <v>20449.123929</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AJ7">
         <v>19958.715543</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AK7">
         <v>22394.780864</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AL7">
         <v>19653.833342</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AM7">
         <v>21052.872245</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AN7">
         <v>20464.104702</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AO7">
         <v>23256.878116</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AP7">
         <v>20326.172238</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AQ7">
         <v>21300.054578</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AR7">
         <v>20835.757182</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AS7">
         <v>23664.432984</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AT7">
         <v>20390.676492</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AU7">
         <v>21805.601467</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AV7">
         <v>20639.897794</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AW7">
         <v>23941.089966</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AX7">
         <v>20894.163258</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AY7">
         <v>21896.022142</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="AZ7">
         <v>20829.130544</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BA7">
         <v>24750.68989</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BB7">
         <v>21522.474096</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BC7">
         <v>22575.802861</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BD7">
         <v>21866.643862</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BE7">
         <v>25767.867548</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BF7">
         <v>22712.241253</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BG7">
         <v>23712.945553</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BH7">
         <v>22991.923676</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BI7">
         <v>26971.819389</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BJ7">
         <v>23615.417428</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BK7">
         <v>24547.343881</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BL7">
         <v>24092.039669</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BM7">
         <v>28131.99933</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BN7">
         <v>24770.299178</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BO7">
         <v>25581.059945</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BP7">
         <v>24966.449456</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BQ7">
         <v>29238.482199</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BR7">
         <v>25914.312284</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BS7">
         <v>26848.844036</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BT7">
         <v>26144.774752</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BU7">
         <v>30723.48223</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BV7">
         <v>27319.025387</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BW7">
         <v>28383.288213</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BX7">
         <v>27583.455057</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BY7">
         <v>32242.813117</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="BZ7">
         <v>28479.024761</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CA7">
         <v>29620.244722</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CB7">
         <v>28640.367025</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CC7">
         <v>33733.516276</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CD7">
         <v>29673.619158</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CE7">
         <v>30978.354436</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CF7">
         <v>29773.653607</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CG7">
         <v>35072.891263</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CH7">
         <v>31059.897034</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CI7">
         <v>32231.213565</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CJ7">
         <v>31105.402429</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CK7">
         <v>36556.923356</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CL7">
         <v>30681.168336</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CM7">
         <v>26915.628742</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CN7">
         <v>27857.233723</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CO7">
         <v>33435.980744</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CP7">
         <v>28828.617364</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CQ7">
         <v>28503.203342</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CR7">
         <v>29446.160291</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CS7">
         <v>35494.541117</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CT7">
         <v>31348.253254</v>
       </c>
-      <c r="CU7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CV7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
-      </c>
-      <c r="CW7" t="inlineStr">
-        <is>
-          <t>..</t>
-        </is>
+      <c r="CU7" t="s">
+        <v>106</v>
+      </c>
+      <c r="CV7" t="s">
+        <v>106</v>
+      </c>
+      <c r="CW7" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/INTLINE/data/566/PHSA/Per Capita Gross Domestic Product Gross National Income and Household Final Consumption Expenditure Q_historical.xlsx
+++ b/INTLINE/data/566/PHSA/Per Capita Gross Domestic Product Gross National Income and Household Final Consumption Expenditure Q_historical.xlsx
@@ -1,366 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Per Capita Gross Domestic Prod" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Per Capita Gross Domestic Prod" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="107">
-  <si>
-    <t>1998-Q1</t>
-  </si>
-  <si>
-    <t>1998-Q2</t>
-  </si>
-  <si>
-    <t>1998-Q3</t>
-  </si>
-  <si>
-    <t>1998-Q4</t>
-  </si>
-  <si>
-    <t>1999-Q1</t>
-  </si>
-  <si>
-    <t>1999-Q2</t>
-  </si>
-  <si>
-    <t>1999-Q3</t>
-  </si>
-  <si>
-    <t>1999-Q4</t>
-  </si>
-  <si>
-    <t>2000-Q1</t>
-  </si>
-  <si>
-    <t>2000-Q2</t>
-  </si>
-  <si>
-    <t>2000-Q3</t>
-  </si>
-  <si>
-    <t>2000-Q4</t>
-  </si>
-  <si>
-    <t>2001-Q1</t>
-  </si>
-  <si>
-    <t>2001-Q2</t>
-  </si>
-  <si>
-    <t>2001-Q3</t>
-  </si>
-  <si>
-    <t>2001-Q4</t>
-  </si>
-  <si>
-    <t>2002-Q1</t>
-  </si>
-  <si>
-    <t>2002-Q2</t>
-  </si>
-  <si>
-    <t>2002-Q3</t>
-  </si>
-  <si>
-    <t>2002-Q4</t>
-  </si>
-  <si>
-    <t>2003-Q1</t>
-  </si>
-  <si>
-    <t>2003-Q2</t>
-  </si>
-  <si>
-    <t>2003-Q3</t>
-  </si>
-  <si>
-    <t>2003-Q4</t>
-  </si>
-  <si>
-    <t>2004-Q1</t>
-  </si>
-  <si>
-    <t>2004-Q2</t>
-  </si>
-  <si>
-    <t>2004-Q3</t>
-  </si>
-  <si>
-    <t>2004-Q4</t>
-  </si>
-  <si>
-    <t>2005-Q1</t>
-  </si>
-  <si>
-    <t>2005-Q2</t>
-  </si>
-  <si>
-    <t>2005-Q3</t>
-  </si>
-  <si>
-    <t>2005-Q4</t>
-  </si>
-  <si>
-    <t>2006-Q1</t>
-  </si>
-  <si>
-    <t>2006-Q2</t>
-  </si>
-  <si>
-    <t>2006-Q3</t>
-  </si>
-  <si>
-    <t>2006-Q4</t>
-  </si>
-  <si>
-    <t>2007-Q1</t>
-  </si>
-  <si>
-    <t>2007-Q2</t>
-  </si>
-  <si>
-    <t>2007-Q3</t>
-  </si>
-  <si>
-    <t>2007-Q4</t>
-  </si>
-  <si>
-    <t>2008-Q1</t>
-  </si>
-  <si>
-    <t>2008-Q2</t>
-  </si>
-  <si>
-    <t>2008-Q3</t>
-  </si>
-  <si>
-    <t>2008-Q4</t>
-  </si>
-  <si>
-    <t>2009-Q1</t>
-  </si>
-  <si>
-    <t>2009-Q2</t>
-  </si>
-  <si>
-    <t>2009-Q3</t>
-  </si>
-  <si>
-    <t>2009-Q4</t>
-  </si>
-  <si>
-    <t>2010-Q1</t>
-  </si>
-  <si>
-    <t>2010-Q2</t>
-  </si>
-  <si>
-    <t>2010-Q3</t>
-  </si>
-  <si>
-    <t>2010-Q4</t>
-  </si>
-  <si>
-    <t>2011-Q1</t>
-  </si>
-  <si>
-    <t>2011-Q2</t>
-  </si>
-  <si>
-    <t>2011-Q3</t>
-  </si>
-  <si>
-    <t>2011-Q4</t>
-  </si>
-  <si>
-    <t>2012-Q1</t>
-  </si>
-  <si>
-    <t>2012-Q2</t>
-  </si>
-  <si>
-    <t>2012-Q3</t>
-  </si>
-  <si>
-    <t>2012-Q4</t>
-  </si>
-  <si>
-    <t>2013-Q1</t>
-  </si>
-  <si>
-    <t>2013-Q2</t>
-  </si>
-  <si>
-    <t>2013-Q3</t>
-  </si>
-  <si>
-    <t>2013-Q4</t>
-  </si>
-  <si>
-    <t>2014-Q1</t>
-  </si>
-  <si>
-    <t>2014-Q2</t>
-  </si>
-  <si>
-    <t>2014-Q3</t>
-  </si>
-  <si>
-    <t>2014-Q4</t>
-  </si>
-  <si>
-    <t>2015-Q1</t>
-  </si>
-  <si>
-    <t>2015-Q2</t>
-  </si>
-  <si>
-    <t>2015-Q3</t>
-  </si>
-  <si>
-    <t>2015-Q4</t>
-  </si>
-  <si>
-    <t>2016-Q1</t>
-  </si>
-  <si>
-    <t>2016-Q2</t>
-  </si>
-  <si>
-    <t>2016-Q3</t>
-  </si>
-  <si>
-    <t>2016-Q4</t>
-  </si>
-  <si>
-    <t>2017-Q1</t>
-  </si>
-  <si>
-    <t>2017-Q2</t>
-  </si>
-  <si>
-    <t>2017-Q3</t>
-  </si>
-  <si>
-    <t>2017-Q4</t>
-  </si>
-  <si>
-    <t>2018-Q1</t>
-  </si>
-  <si>
-    <t>2018-Q2</t>
-  </si>
-  <si>
-    <t>2018-Q3</t>
-  </si>
-  <si>
-    <t>2018-Q4</t>
-  </si>
-  <si>
-    <t>2019-Q1</t>
-  </si>
-  <si>
-    <t>2019-Q2</t>
-  </si>
-  <si>
-    <t>2019-Q3</t>
-  </si>
-  <si>
-    <t>2019-Q4</t>
-  </si>
-  <si>
-    <t>2020-Q1</t>
-  </si>
-  <si>
-    <t>2020-Q2</t>
-  </si>
-  <si>
-    <t>2020-Q3</t>
-  </si>
-  <si>
-    <t>2020-Q4</t>
-  </si>
-  <si>
-    <t>2021-Q1</t>
-  </si>
-  <si>
-    <t>2021-Q2</t>
-  </si>
-  <si>
-    <t>2021-Q3</t>
-  </si>
-  <si>
-    <t>2021-Q4</t>
-  </si>
-  <si>
-    <t>2022-Q1</t>
-  </si>
-  <si>
-    <t>2022-Q2</t>
-  </si>
-  <si>
-    <t>2022-Q3</t>
-  </si>
-  <si>
-    <t>2022-Q4</t>
-  </si>
-  <si>
-    <t>Per Capita Gross Domestic Product at current prices</t>
-  </si>
-  <si>
-    <t>Per Capita Gross National Income at current prices</t>
-  </si>
-  <si>
-    <t>Per Capita Household Final Consumption Expenditure at current prices</t>
-  </si>
-  <si>
-    <t>Per Capita Gross Domestic Product at constant prices</t>
-  </si>
-  <si>
-    <t>Per Capita Gross National Income at constant prices</t>
-  </si>
-  <si>
-    <t>Per Capita Household Final Consumption Expenditure at constant prices</t>
-  </si>
-  <si>
-    <t>..</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
   <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -375,18 +46,10 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
       <diagonal/>
     </border>
   </borders>
@@ -394,15 +57,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
@@ -691,2146 +353,2400 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:CW7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:101">
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="Z1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="AA1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="AB1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AC1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AD1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AE1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AF1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="AG1" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="AH1" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="AI1" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="AJ1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="AK1" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="AL1" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="AM1" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="AN1" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="AO1" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="AP1" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="AQ1" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="AR1" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="AS1" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="AT1" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="AU1" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="AV1" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="AW1" s="1" t="s">
-        <v>47</v>
-      </c>
-      <c r="AX1" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="AY1" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="AZ1" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="BA1" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="BB1" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="BC1" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="BD1" s="1" t="s">
-        <v>54</v>
-      </c>
-      <c r="BE1" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="BF1" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="BG1" s="1" t="s">
-        <v>57</v>
-      </c>
-      <c r="BH1" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="BI1" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="BJ1" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="BK1" s="1" t="s">
-        <v>61</v>
-      </c>
-      <c r="BL1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="BM1" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="BN1" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="BO1" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="BP1" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="BQ1" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="BR1" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="BS1" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="BT1" s="1" t="s">
-        <v>70</v>
-      </c>
-      <c r="BU1" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="BV1" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW1" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="BX1" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="BY1" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="BZ1" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="CA1" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="CB1" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="CC1" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="CD1" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="CE1" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="CF1" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="CG1" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="CH1" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="CI1" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="CJ1" s="1" t="s">
-        <v>86</v>
-      </c>
-      <c r="CK1" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="CL1" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="CM1" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="CN1" s="1" t="s">
-        <v>90</v>
-      </c>
-      <c r="CO1" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="CP1" s="1" t="s">
-        <v>92</v>
-      </c>
-      <c r="CQ1" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="CR1" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="CS1" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="CT1" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="CU1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="CV1" s="1" t="s">
-        <v>98</v>
-      </c>
-      <c r="CW1" s="1" t="s">
-        <v>99</v>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q1</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q2</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q3</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>1998-Q4</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q1</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q2</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q3</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>1999-Q4</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q1</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q2</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q3</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2000-Q4</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q1</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q2</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q3</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2001-Q4</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q1</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q2</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q3</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2002-Q4</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q1</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q2</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q3</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2003-Q4</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q1</t>
+        </is>
+      </c>
+      <c r="AA1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q2</t>
+        </is>
+      </c>
+      <c r="AB1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q3</t>
+        </is>
+      </c>
+      <c r="AC1" s="1" t="inlineStr">
+        <is>
+          <t>2004-Q4</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q1</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q2</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q3</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>2005-Q4</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q1</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q2</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q3</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>2006-Q4</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q1</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q2</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q3</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>2007-Q4</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q1</t>
+        </is>
+      </c>
+      <c r="AQ1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q2</t>
+        </is>
+      </c>
+      <c r="AR1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q3</t>
+        </is>
+      </c>
+      <c r="AS1" s="1" t="inlineStr">
+        <is>
+          <t>2008-Q4</t>
+        </is>
+      </c>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q1</t>
+        </is>
+      </c>
+      <c r="AU1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q2</t>
+        </is>
+      </c>
+      <c r="AV1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q3</t>
+        </is>
+      </c>
+      <c r="AW1" s="1" t="inlineStr">
+        <is>
+          <t>2009-Q4</t>
+        </is>
+      </c>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q1</t>
+        </is>
+      </c>
+      <c r="AY1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q2</t>
+        </is>
+      </c>
+      <c r="AZ1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q3</t>
+        </is>
+      </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>2010-Q4</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q1</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q2</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q3</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>2011-Q4</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q1</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q2</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q3</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>2012-Q4</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q1</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q2</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q3</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>2013-Q4</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q1</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q2</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q3</t>
+        </is>
+      </c>
+      <c r="BQ1" s="1" t="inlineStr">
+        <is>
+          <t>2014-Q4</t>
+        </is>
+      </c>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q1</t>
+        </is>
+      </c>
+      <c r="BS1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q2</t>
+        </is>
+      </c>
+      <c r="BT1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q3</t>
+        </is>
+      </c>
+      <c r="BU1" s="1" t="inlineStr">
+        <is>
+          <t>2015-Q4</t>
+        </is>
+      </c>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q1</t>
+        </is>
+      </c>
+      <c r="BW1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q2</t>
+        </is>
+      </c>
+      <c r="BX1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q3</t>
+        </is>
+      </c>
+      <c r="BY1" s="1" t="inlineStr">
+        <is>
+          <t>2016-Q4</t>
+        </is>
+      </c>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q1</t>
+        </is>
+      </c>
+      <c r="CA1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q2</t>
+        </is>
+      </c>
+      <c r="CB1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q3</t>
+        </is>
+      </c>
+      <c r="CC1" s="1" t="inlineStr">
+        <is>
+          <t>2017-Q4</t>
+        </is>
+      </c>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q1</t>
+        </is>
+      </c>
+      <c r="CE1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q2</t>
+        </is>
+      </c>
+      <c r="CF1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q3</t>
+        </is>
+      </c>
+      <c r="CG1" s="1" t="inlineStr">
+        <is>
+          <t>2018-Q4</t>
+        </is>
+      </c>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q1</t>
+        </is>
+      </c>
+      <c r="CI1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q2</t>
+        </is>
+      </c>
+      <c r="CJ1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q3</t>
+        </is>
+      </c>
+      <c r="CK1" s="1" t="inlineStr">
+        <is>
+          <t>2019-Q4</t>
+        </is>
+      </c>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q1</t>
+        </is>
+      </c>
+      <c r="CM1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q2</t>
+        </is>
+      </c>
+      <c r="CN1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q3</t>
+        </is>
+      </c>
+      <c r="CO1" s="1" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="CQ1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="CR1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="CS1" s="1" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="CU1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="CV1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q3</t>
+        </is>
+      </c>
+      <c r="CW1" s="1" t="inlineStr">
+        <is>
+          <t>2022-Q4</t>
+        </is>
       </c>
     </row>
-    <row r="2" spans="1:101">
-      <c r="A2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="B2">
+    <row r="2">
+      <c r="A2" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita Gross Domestic Product at current prices</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
         <v>9160.72526556469</v>
       </c>
-      <c r="C2">
+      <c r="C2" t="n">
         <v>9481.12956907284</v>
       </c>
-      <c r="D2">
+      <c r="D2" t="n">
         <v>9607.18923919665</v>
       </c>
-      <c r="E2">
+      <c r="E2" t="n">
         <v>10919.9170146</v>
       </c>
-      <c r="F2">
+      <c r="F2" t="n">
         <v>9764.272095990929</v>
       </c>
-      <c r="G2">
+      <c r="G2" t="n">
         <v>10218.5458532582</v>
       </c>
-      <c r="H2">
+      <c r="H2" t="n">
         <v>10344.2609348413</v>
       </c>
-      <c r="I2">
+      <c r="I2" t="n">
         <v>11796.9889397654</v>
       </c>
-      <c r="J2">
+      <c r="J2" t="n">
         <v>11173.339846</v>
       </c>
-      <c r="K2">
+      <c r="K2" t="n">
         <v>11822.197899</v>
       </c>
-      <c r="L2">
+      <c r="L2" t="n">
         <v>11873.755596</v>
       </c>
-      <c r="M2">
+      <c r="M2" t="n">
         <v>13297.95969</v>
       </c>
-      <c r="N2">
+      <c r="N2" t="n">
         <v>11904.391618</v>
       </c>
-      <c r="O2">
+      <c r="O2" t="n">
         <v>12662.979075</v>
       </c>
-      <c r="P2">
+      <c r="P2" t="n">
         <v>12679.423062</v>
       </c>
-      <c r="Q2">
+      <c r="Q2" t="n">
         <v>14064.498885</v>
       </c>
-      <c r="R2">
+      <c r="R2" t="n">
         <v>12670.599559</v>
       </c>
-      <c r="S2">
+      <c r="S2" t="n">
         <v>13449.156077</v>
       </c>
-      <c r="T2">
+      <c r="T2" t="n">
         <v>13201.866301</v>
       </c>
-      <c r="U2">
+      <c r="U2" t="n">
         <v>15000.945993</v>
       </c>
-      <c r="V2">
+      <c r="V2" t="n">
         <v>13457.847716</v>
       </c>
-      <c r="W2">
+      <c r="W2" t="n">
         <v>14077.691968</v>
       </c>
-      <c r="X2">
+      <c r="X2" t="n">
         <v>14070.290837</v>
       </c>
-      <c r="Y2">
+      <c r="Y2" t="n">
         <v>16113.717541</v>
       </c>
-      <c r="Z2">
+      <c r="Z2" t="n">
         <v>14790.276949</v>
       </c>
-      <c r="AA2">
+      <c r="AA2" t="n">
         <v>15710.60146</v>
       </c>
-      <c r="AB2">
+      <c r="AB2" t="n">
         <v>15558.086597</v>
       </c>
-      <c r="AC2">
+      <c r="AC2" t="n">
         <v>17797.640162</v>
       </c>
-      <c r="AD2">
+      <c r="AD2" t="n">
         <v>16055.570783</v>
       </c>
-      <c r="AE2">
+      <c r="AE2" t="n">
         <v>17185.706002</v>
       </c>
-      <c r="AF2">
+      <c r="AF2" t="n">
         <v>16947.360957</v>
       </c>
-      <c r="AG2">
+      <c r="AG2" t="n">
         <v>19427.524571</v>
       </c>
-      <c r="AH2">
+      <c r="AH2" t="n">
         <v>17408.506664</v>
       </c>
-      <c r="AI2">
+      <c r="AI2" t="n">
         <v>18827.989233</v>
       </c>
-      <c r="AJ2">
+      <c r="AJ2" t="n">
         <v>18306.986298</v>
       </c>
-      <c r="AK2">
+      <c r="AK2" t="n">
         <v>21085.251483</v>
       </c>
-      <c r="AL2">
+      <c r="AL2" t="n">
         <v>18858.476899</v>
       </c>
-      <c r="AM2">
+      <c r="AM2" t="n">
         <v>20263.923115</v>
       </c>
-      <c r="AN2">
+      <c r="AN2" t="n">
         <v>19648.552759</v>
       </c>
-      <c r="AO2">
+      <c r="AO2" t="n">
         <v>22826.22208</v>
       </c>
-      <c r="AP2">
+      <c r="AP2" t="n">
         <v>20134.096696</v>
       </c>
-      <c r="AQ2">
+      <c r="AQ2" t="n">
         <v>22550.463461</v>
       </c>
-      <c r="AR2">
+      <c r="AR2" t="n">
         <v>22209.464441</v>
       </c>
-      <c r="AS2">
+      <c r="AS2" t="n">
         <v>24739.063912</v>
       </c>
-      <c r="AT2">
+      <c r="AT2" t="n">
         <v>20926.662673</v>
       </c>
-      <c r="AU2">
+      <c r="AU2" t="n">
         <v>22762.937608</v>
       </c>
-      <c r="AV2">
+      <c r="AV2" t="n">
         <v>22238.264893</v>
       </c>
-      <c r="AW2">
+      <c r="AW2" t="n">
         <v>25874.122771</v>
       </c>
-      <c r="AX2">
+      <c r="AX2" t="n">
         <v>23298.283367</v>
       </c>
-      <c r="AY2">
+      <c r="AY2" t="n">
         <v>25369.462986</v>
       </c>
-      <c r="AZ2">
+      <c r="AZ2" t="n">
         <v>24370.701996</v>
       </c>
-      <c r="BA2">
+      <c r="BA2" t="n">
         <v>28069.354344</v>
       </c>
-      <c r="BB2">
+      <c r="BB2" t="n">
         <v>25035.020482</v>
       </c>
-      <c r="BC2">
+      <c r="BC2" t="n">
         <v>26984.73105</v>
       </c>
-      <c r="BD2">
+      <c r="BD2" t="n">
         <v>25651.142984</v>
       </c>
-      <c r="BE2">
+      <c r="BE2" t="n">
         <v>29653.17034</v>
       </c>
-      <c r="BF2">
+      <c r="BF2" t="n">
         <v>26599.781147</v>
       </c>
-      <c r="BG2">
+      <c r="BG2" t="n">
         <v>28719.387075</v>
       </c>
-      <c r="BH2">
+      <c r="BH2" t="n">
         <v>27771.737381</v>
       </c>
-      <c r="BI2">
+      <c r="BI2" t="n">
         <v>32029.748117</v>
       </c>
-      <c r="BJ2">
+      <c r="BJ2" t="n">
         <v>28579.67819</v>
       </c>
-      <c r="BK2">
+      <c r="BK2" t="n">
         <v>30738.486058</v>
       </c>
-      <c r="BL2">
+      <c r="BL2" t="n">
         <v>29804.993097</v>
       </c>
-      <c r="BM2">
+      <c r="BM2" t="n">
         <v>34322.263407</v>
       </c>
-      <c r="BN2">
+      <c r="BN2" t="n">
         <v>30805.330352</v>
       </c>
-      <c r="BO2">
+      <c r="BO2" t="n">
         <v>33322.608716</v>
       </c>
-      <c r="BP2">
+      <c r="BP2" t="n">
         <v>31963.158914</v>
       </c>
-      <c r="BQ2">
+      <c r="BQ2" t="n">
         <v>37110.748394</v>
       </c>
-      <c r="BR2">
+      <c r="BR2" t="n">
         <v>32044.637091</v>
       </c>
-      <c r="BS2">
+      <c r="BS2" t="n">
         <v>34795.811849</v>
       </c>
-      <c r="BT2">
+      <c r="BT2" t="n">
         <v>33030.559104</v>
       </c>
-      <c r="BU2">
+      <c r="BU2" t="n">
         <v>38666.823084</v>
       </c>
-      <c r="BV2">
+      <c r="BV2" t="n">
         <v>33806.396898</v>
       </c>
-      <c r="BW2">
+      <c r="BW2" t="n">
         <v>37128.672481</v>
       </c>
-      <c r="BX2">
+      <c r="BX2" t="n">
         <v>35550.296859</v>
       </c>
-      <c r="BY2">
+      <c r="BY2" t="n">
         <v>41368.46511</v>
       </c>
-      <c r="BZ2">
+      <c r="BZ2" t="n">
         <v>36239.000846</v>
       </c>
-      <c r="CA2">
+      <c r="CA2" t="n">
         <v>40034.020412</v>
       </c>
-      <c r="CB2">
+      <c r="CB2" t="n">
         <v>38571.099894</v>
       </c>
-      <c r="CC2">
+      <c r="CC2" t="n">
         <v>44365.383437</v>
       </c>
-      <c r="CD2">
+      <c r="CD2" t="n">
         <v>39070.101571</v>
       </c>
-      <c r="CE2">
+      <c r="CE2" t="n">
         <v>43363.71292</v>
       </c>
-      <c r="CF2">
+      <c r="CF2" t="n">
         <v>42080.329552</v>
       </c>
-      <c r="CG2">
+      <c r="CG2" t="n">
         <v>48473.443227</v>
       </c>
-      <c r="CH2">
+      <c r="CH2" t="n">
         <v>41548.496746</v>
       </c>
-      <c r="CI2">
+      <c r="CI2" t="n">
         <v>45516.398916</v>
       </c>
-      <c r="CJ2">
+      <c r="CJ2" t="n">
         <v>44048.596541</v>
       </c>
-      <c r="CK2">
+      <c r="CK2" t="n">
         <v>51085.493365</v>
       </c>
-      <c r="CL2">
+      <c r="CL2" t="n">
         <v>41182.745824</v>
       </c>
-      <c r="CM2">
+      <c r="CM2" t="n">
         <v>38175.790586</v>
       </c>
-      <c r="CN2">
+      <c r="CN2" t="n">
         <v>38659.842386</v>
       </c>
-      <c r="CO2">
+      <c r="CO2" t="n">
         <v>47272.772313</v>
       </c>
-      <c r="CP2">
+      <c r="CP2" t="n">
         <v>39928.436224</v>
       </c>
-      <c r="CQ2">
+      <c r="CQ2" t="n">
         <v>43438.626246</v>
       </c>
-      <c r="CR2">
+      <c r="CR2" t="n">
         <v>41782.044483</v>
       </c>
-      <c r="CS2">
+      <c r="CS2" t="n">
         <v>51221.453431</v>
       </c>
-      <c r="CT2">
+      <c r="CT2" t="n">
         <v>44458.8636</v>
       </c>
-      <c r="CU2" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV2" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW2" t="s">
-        <v>106</v>
+      <c r="CU2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CV2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CW2" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:101">
-      <c r="A3" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="B3">
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita Gross National Income at current prices</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
         <v>10524.5274191265</v>
       </c>
-      <c r="C3">
+      <c r="C3" t="n">
         <v>10842.3226090708</v>
       </c>
-      <c r="D3">
+      <c r="D3" t="n">
         <v>11105.4037367015</v>
       </c>
-      <c r="E3">
+      <c r="E3" t="n">
         <v>12338.8836085201</v>
       </c>
-      <c r="F3">
+      <c r="F3" t="n">
         <v>11245.4655316312</v>
       </c>
-      <c r="G3">
+      <c r="G3" t="n">
         <v>11668.6235136928</v>
       </c>
-      <c r="H3">
+      <c r="H3" t="n">
         <v>11774.8019742562</v>
       </c>
-      <c r="I3">
+      <c r="I3" t="n">
         <v>13252.1284395525</v>
       </c>
-      <c r="J3">
+      <c r="J3" t="n">
         <v>12287.116782</v>
       </c>
-      <c r="K3">
+      <c r="K3" t="n">
         <v>12876.319079</v>
       </c>
-      <c r="L3">
+      <c r="L3" t="n">
         <v>12946.103334</v>
       </c>
-      <c r="M3">
+      <c r="M3" t="n">
         <v>14598.931399</v>
       </c>
-      <c r="N3">
+      <c r="N3" t="n">
         <v>13052.249099</v>
       </c>
-      <c r="O3">
+      <c r="O3" t="n">
         <v>14013.184118</v>
       </c>
-      <c r="P3">
+      <c r="P3" t="n">
         <v>13959.815349</v>
       </c>
-      <c r="Q3">
+      <c r="Q3" t="n">
         <v>15201.369978</v>
       </c>
-      <c r="R3">
+      <c r="R3" t="n">
         <v>14029.161772</v>
       </c>
-      <c r="S3">
+      <c r="S3" t="n">
         <v>14653.867025</v>
       </c>
-      <c r="T3">
+      <c r="T3" t="n">
         <v>14390.886219</v>
       </c>
-      <c r="U3">
+      <c r="U3" t="n">
         <v>16428.727018</v>
       </c>
-      <c r="V3">
+      <c r="V3" t="n">
         <v>14738.562535</v>
       </c>
-      <c r="W3">
+      <c r="W3" t="n">
         <v>15464.145638</v>
       </c>
-      <c r="X3">
+      <c r="X3" t="n">
         <v>15449.68232</v>
       </c>
-      <c r="Y3">
+      <c r="Y3" t="n">
         <v>17500.288867</v>
       </c>
-      <c r="Z3">
+      <c r="Z3" t="n">
         <v>16223.096057</v>
       </c>
-      <c r="AA3">
+      <c r="AA3" t="n">
         <v>17266.308054</v>
       </c>
-      <c r="AB3">
+      <c r="AB3" t="n">
         <v>17035.950982</v>
       </c>
-      <c r="AC3">
+      <c r="AC3" t="n">
         <v>19289.525268</v>
       </c>
-      <c r="AD3">
+      <c r="AD3" t="n">
         <v>17634.760455</v>
       </c>
-      <c r="AE3">
+      <c r="AE3" t="n">
         <v>18814.518001</v>
       </c>
-      <c r="AF3">
+      <c r="AF3" t="n">
         <v>18636.310058</v>
       </c>
-      <c r="AG3">
+      <c r="AG3" t="n">
         <v>21324.827332</v>
       </c>
-      <c r="AH3">
+      <c r="AH3" t="n">
         <v>19064.42508</v>
       </c>
-      <c r="AI3">
+      <c r="AI3" t="n">
         <v>20701.965375</v>
       </c>
-      <c r="AJ3">
+      <c r="AJ3" t="n">
         <v>19857.247153</v>
       </c>
-      <c r="AK3">
+      <c r="AK3" t="n">
         <v>22962.709143</v>
       </c>
-      <c r="AL3">
+      <c r="AL3" t="n">
         <v>20433.29147</v>
       </c>
-      <c r="AM3">
+      <c r="AM3" t="n">
         <v>22246.1085</v>
       </c>
-      <c r="AN3">
+      <c r="AN3" t="n">
         <v>21560.592162</v>
       </c>
-      <c r="AO3">
+      <c r="AO3" t="n">
         <v>24686.080023</v>
       </c>
-      <c r="AP3">
+      <c r="AP3" t="n">
         <v>21821.537842</v>
       </c>
-      <c r="AQ3">
+      <c r="AQ3" t="n">
         <v>24719.306753</v>
       </c>
-      <c r="AR3">
+      <c r="AR3" t="n">
         <v>24274.802298</v>
       </c>
-      <c r="AS3">
+      <c r="AS3" t="n">
         <v>27211.917237</v>
       </c>
-      <c r="AT3">
+      <c r="AT3" t="n">
         <v>23164.671146</v>
       </c>
-      <c r="AU3">
+      <c r="AU3" t="n">
         <v>25589.732831</v>
       </c>
-      <c r="AV3">
+      <c r="AV3" t="n">
         <v>24940.738813</v>
       </c>
-      <c r="AW3">
+      <c r="AW3" t="n">
         <v>28708.614917</v>
       </c>
-      <c r="AX3">
+      <c r="AX3" t="n">
         <v>26023.482547</v>
       </c>
-      <c r="AY3">
+      <c r="AY3" t="n">
         <v>28351.72256</v>
       </c>
-      <c r="AZ3">
+      <c r="AZ3" t="n">
         <v>27157.888514</v>
       </c>
-      <c r="BA3">
+      <c r="BA3" t="n">
         <v>30921.548554</v>
       </c>
-      <c r="BB3">
+      <c r="BB3" t="n">
         <v>27819.697778</v>
       </c>
-      <c r="BC3">
+      <c r="BC3" t="n">
         <v>29875.538363</v>
       </c>
-      <c r="BD3">
+      <c r="BD3" t="n">
         <v>28416.05405</v>
       </c>
-      <c r="BE3">
+      <c r="BE3" t="n">
         <v>32796.901085</v>
       </c>
-      <c r="BF3">
+      <c r="BF3" t="n">
         <v>29441.901568</v>
       </c>
-      <c r="BG3">
+      <c r="BG3" t="n">
         <v>31998.104311</v>
       </c>
-      <c r="BH3">
+      <c r="BH3" t="n">
         <v>30913.677794</v>
       </c>
-      <c r="BI3">
+      <c r="BI3" t="n">
         <v>35470.717233</v>
       </c>
-      <c r="BJ3">
+      <c r="BJ3" t="n">
         <v>31946.853466</v>
       </c>
-      <c r="BK3">
+      <c r="BK3" t="n">
         <v>34187.487566</v>
       </c>
-      <c r="BL3">
+      <c r="BL3" t="n">
         <v>33637.131803</v>
       </c>
-      <c r="BM3">
+      <c r="BM3" t="n">
         <v>38190.409868</v>
       </c>
-      <c r="BN3">
+      <c r="BN3" t="n">
         <v>34605.109716</v>
       </c>
-      <c r="BO3">
+      <c r="BO3" t="n">
         <v>37142.084667</v>
       </c>
-      <c r="BP3">
+      <c r="BP3" t="n">
         <v>35752.328869</v>
       </c>
-      <c r="BQ3">
+      <c r="BQ3" t="n">
         <v>41055.965853</v>
       </c>
-      <c r="BR3">
+      <c r="BR3" t="n">
         <v>35864.317684</v>
       </c>
-      <c r="BS3">
+      <c r="BS3" t="n">
         <v>38661.438903</v>
       </c>
-      <c r="BT3">
+      <c r="BT3" t="n">
         <v>36879.042819</v>
       </c>
-      <c r="BU3">
+      <c r="BU3" t="n">
         <v>42966.631243</v>
       </c>
-      <c r="BV3">
+      <c r="BV3" t="n">
         <v>37876.765238</v>
       </c>
-      <c r="BW3">
+      <c r="BW3" t="n">
         <v>41165.568293</v>
       </c>
-      <c r="BX3">
+      <c r="BX3" t="n">
         <v>39563.705532</v>
       </c>
-      <c r="BY3">
+      <c r="BY3" t="n">
         <v>45671.373943</v>
       </c>
-      <c r="BZ3">
+      <c r="BZ3" t="n">
         <v>40583.241923</v>
       </c>
-      <c r="CA3">
+      <c r="CA3" t="n">
         <v>44424.707927</v>
       </c>
-      <c r="CB3">
+      <c r="CB3" t="n">
         <v>42985.447308</v>
       </c>
-      <c r="CC3">
+      <c r="CC3" t="n">
         <v>48784.508291</v>
       </c>
-      <c r="CD3">
+      <c r="CD3" t="n">
         <v>43595.153381</v>
       </c>
-      <c r="CE3">
+      <c r="CE3" t="n">
         <v>47802.564179</v>
       </c>
-      <c r="CF3">
+      <c r="CF3" t="n">
         <v>46907.83942</v>
       </c>
-      <c r="CG3">
+      <c r="CG3" t="n">
         <v>53127.220034</v>
       </c>
-      <c r="CH3">
+      <c r="CH3" t="n">
         <v>46197.541809</v>
       </c>
-      <c r="CI3">
+      <c r="CI3" t="n">
         <v>50039.464904</v>
       </c>
-      <c r="CJ3">
+      <c r="CJ3" t="n">
         <v>48715.942698</v>
       </c>
-      <c r="CK3">
+      <c r="CK3" t="n">
         <v>55494.238038</v>
       </c>
-      <c r="CL3">
+      <c r="CL3" t="n">
         <v>45363.150629</v>
       </c>
-      <c r="CM3">
+      <c r="CM3" t="n">
         <v>41580.97739</v>
       </c>
-      <c r="CN3">
+      <c r="CN3" t="n">
         <v>41733.995424</v>
       </c>
-      <c r="CO3">
+      <c r="CO3" t="n">
         <v>49153.86199</v>
       </c>
-      <c r="CP3">
+      <c r="CP3" t="n">
         <v>40960.344169</v>
       </c>
-      <c r="CQ3">
+      <c r="CQ3" t="n">
         <v>44975.940617</v>
       </c>
-      <c r="CR3">
+      <c r="CR3" t="n">
         <v>43281.679652</v>
       </c>
-      <c r="CS3">
+      <c r="CS3" t="n">
         <v>53453.468625</v>
       </c>
-      <c r="CT3">
+      <c r="CT3" t="n">
         <v>46610.547077</v>
       </c>
-      <c r="CU3" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV3" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW3" t="s">
-        <v>106</v>
+      <c r="CU3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CV3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CW3" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:101">
-      <c r="A4" s="1" t="s">
-        <v>102</v>
-      </c>
-      <c r="B4">
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita Household Final Consumption Expenditure at current prices</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
         <v>6470.75454205079</v>
       </c>
-      <c r="C4">
+      <c r="C4" t="n">
         <v>7063.92518825173</v>
       </c>
-      <c r="D4">
+      <c r="D4" t="n">
         <v>7018.96100459238</v>
       </c>
-      <c r="E4">
+      <c r="E4" t="n">
         <v>7831.20073292522</v>
       </c>
-      <c r="F4">
+      <c r="F4" t="n">
         <v>7224.84358865125</v>
       </c>
-      <c r="G4">
+      <c r="G4" t="n">
         <v>7638.69758885126</v>
       </c>
-      <c r="H4">
+      <c r="H4" t="n">
         <v>7483.95271366757</v>
       </c>
-      <c r="I4">
+      <c r="I4" t="n">
         <v>8303.19481996134</v>
       </c>
-      <c r="J4">
+      <c r="J4" t="n">
         <v>7889.024379</v>
       </c>
-      <c r="K4">
+      <c r="K4" t="n">
         <v>8532.108225</v>
       </c>
-      <c r="L4">
+      <c r="L4" t="n">
         <v>8510.9311</v>
       </c>
-      <c r="M4">
+      <c r="M4" t="n">
         <v>9611.006627000001</v>
       </c>
-      <c r="N4">
+      <c r="N4" t="n">
         <v>8668.217159</v>
       </c>
-      <c r="O4">
+      <c r="O4" t="n">
         <v>9102.324385</v>
       </c>
-      <c r="P4">
+      <c r="P4" t="n">
         <v>9245.708853</v>
       </c>
-      <c r="Q4">
+      <c r="Q4" t="n">
         <v>10389.434391</v>
       </c>
-      <c r="R4">
+      <c r="R4" t="n">
         <v>9128.375902</v>
       </c>
-      <c r="S4">
+      <c r="S4" t="n">
         <v>9784.609270999999</v>
       </c>
-      <c r="T4">
+      <c r="T4" t="n">
         <v>9929.558848999999</v>
       </c>
-      <c r="U4">
+      <c r="U4" t="n">
         <v>10868.449361</v>
       </c>
-      <c r="V4">
+      <c r="V4" t="n">
         <v>9879.766743</v>
       </c>
-      <c r="W4">
+      <c r="W4" t="n">
         <v>10374.706281</v>
       </c>
-      <c r="X4">
+      <c r="X4" t="n">
         <v>10494.97239</v>
       </c>
-      <c r="Y4">
+      <c r="Y4" t="n">
         <v>11677.954357</v>
       </c>
-      <c r="Z4">
+      <c r="Z4" t="n">
         <v>10749.376435</v>
       </c>
-      <c r="AA4">
+      <c r="AA4" t="n">
         <v>11321.083354</v>
       </c>
-      <c r="AB4">
+      <c r="AB4" t="n">
         <v>11677.633531</v>
       </c>
-      <c r="AC4">
+      <c r="AC4" t="n">
         <v>13246.926697</v>
       </c>
-      <c r="AD4">
+      <c r="AD4" t="n">
         <v>11874.128869</v>
       </c>
-      <c r="AE4">
+      <c r="AE4" t="n">
         <v>12691.304359</v>
       </c>
-      <c r="AF4">
+      <c r="AF4" t="n">
         <v>12649.964002</v>
       </c>
-      <c r="AG4">
+      <c r="AG4" t="n">
         <v>14268.841643</v>
       </c>
-      <c r="AH4">
+      <c r="AH4" t="n">
         <v>12869.133683</v>
       </c>
-      <c r="AI4">
+      <c r="AI4" t="n">
         <v>13769.261357</v>
       </c>
-      <c r="AJ4">
+      <c r="AJ4" t="n">
         <v>13564.953705</v>
       </c>
-      <c r="AK4">
+      <c r="AK4" t="n">
         <v>15217.408978</v>
       </c>
-      <c r="AL4">
+      <c r="AL4" t="n">
         <v>13630.790212</v>
       </c>
-      <c r="AM4">
+      <c r="AM4" t="n">
         <v>14586.477869</v>
       </c>
-      <c r="AN4">
+      <c r="AN4" t="n">
         <v>14385.38048</v>
       </c>
-      <c r="AO4">
+      <c r="AO4" t="n">
         <v>16356.918944</v>
       </c>
-      <c r="AP4">
+      <c r="AP4" t="n">
         <v>14859.993126</v>
       </c>
-      <c r="AQ4">
+      <c r="AQ4" t="n">
         <v>16209.616473</v>
       </c>
-      <c r="AR4">
+      <c r="AR4" t="n">
         <v>16297.454814</v>
       </c>
-      <c r="AS4">
+      <c r="AS4" t="n">
         <v>18230.901296</v>
       </c>
-      <c r="AT4">
+      <c r="AT4" t="n">
         <v>15719.36965</v>
       </c>
-      <c r="AU4">
+      <c r="AU4" t="n">
         <v>16796.816462</v>
       </c>
-      <c r="AV4">
+      <c r="AV4" t="n">
         <v>16195.27884</v>
       </c>
-      <c r="AW4">
+      <c r="AW4" t="n">
         <v>18483.71116</v>
       </c>
-      <c r="AX4">
+      <c r="AX4" t="n">
         <v>16649.055878</v>
       </c>
-      <c r="AY4">
+      <c r="AY4" t="n">
         <v>17591.082915</v>
       </c>
-      <c r="AZ4">
+      <c r="AZ4" t="n">
         <v>17098.709845</v>
       </c>
-      <c r="BA4">
+      <c r="BA4" t="n">
         <v>19633.06752</v>
       </c>
-      <c r="BB4">
+      <c r="BB4" t="n">
         <v>17984.09847</v>
       </c>
-      <c r="BC4">
+      <c r="BC4" t="n">
         <v>19261.636028</v>
       </c>
-      <c r="BD4">
+      <c r="BD4" t="n">
         <v>18613.294449</v>
       </c>
-      <c r="BE4">
+      <c r="BE4" t="n">
         <v>21553.217176</v>
       </c>
-      <c r="BF4">
+      <c r="BF4" t="n">
         <v>19675.308981</v>
       </c>
-      <c r="BG4">
+      <c r="BG4" t="n">
         <v>20480.759945</v>
       </c>
-      <c r="BH4">
+      <c r="BH4" t="n">
         <v>20123.609532</v>
       </c>
-      <c r="BI4">
+      <c r="BI4" t="n">
         <v>23247.647452</v>
       </c>
-      <c r="BJ4">
+      <c r="BJ4" t="n">
         <v>20941.20916</v>
       </c>
-      <c r="BK4">
+      <c r="BK4" t="n">
         <v>21677.57746</v>
       </c>
-      <c r="BL4">
+      <c r="BL4" t="n">
         <v>21460.025013</v>
       </c>
-      <c r="BM4">
+      <c r="BM4" t="n">
         <v>24815.824065</v>
       </c>
-      <c r="BN4">
+      <c r="BN4" t="n">
         <v>22373.119987</v>
       </c>
-      <c r="BO4">
+      <c r="BO4" t="n">
         <v>23160.244146</v>
       </c>
-      <c r="BP4">
+      <c r="BP4" t="n">
         <v>22966.348402</v>
       </c>
-      <c r="BQ4">
+      <c r="BQ4" t="n">
         <v>26439.578517</v>
       </c>
-      <c r="BR4">
+      <c r="BR4" t="n">
         <v>23729.349525</v>
       </c>
-      <c r="BS4">
+      <c r="BS4" t="n">
         <v>24588.558829</v>
       </c>
-      <c r="BT4">
+      <c r="BT4" t="n">
         <v>24160.497184</v>
       </c>
-      <c r="BU4">
+      <c r="BU4" t="n">
         <v>27925.949191</v>
       </c>
-      <c r="BV4">
+      <c r="BV4" t="n">
         <v>25047.732613</v>
       </c>
-      <c r="BW4">
+      <c r="BW4" t="n">
         <v>26255.036447</v>
       </c>
-      <c r="BX4">
+      <c r="BX4" t="n">
         <v>25989.741978</v>
       </c>
-      <c r="BY4">
+      <c r="BY4" t="n">
         <v>29982.346269</v>
       </c>
-      <c r="BZ4">
+      <c r="BZ4" t="n">
         <v>26917.083439</v>
       </c>
-      <c r="CA4">
+      <c r="CA4" t="n">
         <v>28176.872406</v>
       </c>
-      <c r="CB4">
+      <c r="CB4" t="n">
         <v>27735.246396</v>
       </c>
-      <c r="CC4">
+      <c r="CC4" t="n">
         <v>32093.671145</v>
       </c>
-      <c r="CD4">
+      <c r="CD4" t="n">
         <v>29065.638353</v>
       </c>
-      <c r="CE4">
+      <c r="CE4" t="n">
         <v>30752.16561</v>
       </c>
-      <c r="CF4">
+      <c r="CF4" t="n">
         <v>30519.464921</v>
       </c>
-      <c r="CG4">
+      <c r="CG4" t="n">
         <v>35155.580412</v>
       </c>
-      <c r="CH4">
+      <c r="CH4" t="n">
         <v>31361.218745</v>
       </c>
-      <c r="CI4">
+      <c r="CI4" t="n">
         <v>32736.341938</v>
       </c>
-      <c r="CJ4">
+      <c r="CJ4" t="n">
         <v>32274.097582</v>
       </c>
-      <c r="CK4">
+      <c r="CK4" t="n">
         <v>37015.673526</v>
       </c>
-      <c r="CL4">
+      <c r="CL4" t="n">
         <v>31680.88327</v>
       </c>
-      <c r="CM4">
+      <c r="CM4" t="n">
         <v>28063.113844</v>
       </c>
-      <c r="CN4">
+      <c r="CN4" t="n">
         <v>29514.263081</v>
       </c>
-      <c r="CO4">
+      <c r="CO4" t="n">
         <v>34829.581633</v>
       </c>
-      <c r="CP4">
+      <c r="CP4" t="n">
         <v>31028.507929</v>
       </c>
-      <c r="CQ4">
+      <c r="CQ4" t="n">
         <v>30917.282429</v>
       </c>
-      <c r="CR4">
+      <c r="CR4" t="n">
         <v>32508.887502</v>
       </c>
-      <c r="CS4">
+      <c r="CS4" t="n">
         <v>38299.108323</v>
       </c>
-      <c r="CT4">
+      <c r="CT4" t="n">
         <v>34783.388008</v>
       </c>
-      <c r="CU4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV4" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW4" t="s">
-        <v>106</v>
+      <c r="CU4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CV4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CW4" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="5" spans="1:101">
-      <c r="A5" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B5">
+    <row r="5">
+      <c r="A5" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita Gross Domestic Product at constant prices</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
         <v>21565.4274237486</v>
       </c>
-      <c r="C5">
+      <c r="C5" t="n">
         <v>21740.1494642787</v>
       </c>
-      <c r="D5">
+      <c r="D5" t="n">
         <v>21352.4083889297</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="n">
         <v>23499.2794145231</v>
       </c>
-      <c r="F5">
+      <c r="F5" t="n">
         <v>21162.7729901395</v>
       </c>
-      <c r="G5">
+      <c r="G5" t="n">
         <v>21906.6800827005</v>
       </c>
-      <c r="H5">
+      <c r="H5" t="n">
         <v>21741.9049791349</v>
       </c>
-      <c r="I5">
+      <c r="I5" t="n">
         <v>24132.9880654324</v>
       </c>
-      <c r="J5">
+      <c r="J5" t="n">
         <v>21722.640621</v>
       </c>
-      <c r="K5">
+      <c r="K5" t="n">
         <v>22603.278127</v>
       </c>
-      <c r="L5">
+      <c r="L5" t="n">
         <v>22215.603087</v>
       </c>
-      <c r="M5">
+      <c r="M5" t="n">
         <v>24467.230374</v>
       </c>
-      <c r="N5">
+      <c r="N5" t="n">
         <v>21768.922757</v>
       </c>
-      <c r="O5">
+      <c r="O5" t="n">
         <v>22843.789138</v>
       </c>
-      <c r="P5">
+      <c r="P5" t="n">
         <v>22421.048581</v>
       </c>
-      <c r="Q5">
+      <c r="Q5" t="n">
         <v>24754.184871</v>
       </c>
-      <c r="R5">
+      <c r="R5" t="n">
         <v>22139.979278</v>
       </c>
-      <c r="S5">
+      <c r="S5" t="n">
         <v>23188.123491</v>
       </c>
-      <c r="T5">
+      <c r="T5" t="n">
         <v>22546.357981</v>
       </c>
-      <c r="U5">
+      <c r="U5" t="n">
         <v>25353.865178</v>
       </c>
-      <c r="V5">
+      <c r="V5" t="n">
         <v>22691.064737</v>
       </c>
-      <c r="W5">
+      <c r="W5" t="n">
         <v>23716.432223</v>
       </c>
-      <c r="X5">
+      <c r="X5" t="n">
         <v>23313.492288</v>
       </c>
-      <c r="Y5">
+      <c r="Y5" t="n">
         <v>26273.407971</v>
       </c>
-      <c r="Z5">
+      <c r="Z5" t="n">
         <v>23837.359153</v>
       </c>
-      <c r="AA5">
+      <c r="AA5" t="n">
         <v>24991.425299</v>
       </c>
-      <c r="AB5">
+      <c r="AB5" t="n">
         <v>24286.670318</v>
       </c>
-      <c r="AC5">
+      <c r="AC5" t="n">
         <v>27181.236671</v>
       </c>
-      <c r="AD5">
+      <c r="AD5" t="n">
         <v>24550.608223</v>
       </c>
-      <c r="AE5">
+      <c r="AE5" t="n">
         <v>25898.626648</v>
       </c>
-      <c r="AF5">
+      <c r="AF5" t="n">
         <v>24866.911251</v>
       </c>
-      <c r="AG5">
+      <c r="AG5" t="n">
         <v>27926.030492</v>
       </c>
-      <c r="AH5">
+      <c r="AH5" t="n">
         <v>25172.808412</v>
       </c>
-      <c r="AI5">
+      <c r="AI5" t="n">
         <v>26918.347298</v>
       </c>
-      <c r="AJ5">
+      <c r="AJ5" t="n">
         <v>25552.309532</v>
       </c>
-      <c r="AK5">
+      <c r="AK5" t="n">
         <v>29058.039978</v>
       </c>
-      <c r="AL5">
+      <c r="AL5" t="n">
         <v>26233.786488</v>
       </c>
-      <c r="AM5">
+      <c r="AM5" t="n">
         <v>28235.334496</v>
       </c>
-      <c r="AN5">
+      <c r="AN5" t="n">
         <v>26731.407138</v>
       </c>
-      <c r="AO5">
+      <c r="AO5" t="n">
         <v>30389.653249</v>
       </c>
-      <c r="AP5">
+      <c r="AP5" t="n">
         <v>26838.08668</v>
       </c>
-      <c r="AQ5">
+      <c r="AQ5" t="n">
         <v>29056.280036</v>
       </c>
-      <c r="AR5">
+      <c r="AR5" t="n">
         <v>27685.529821</v>
       </c>
-      <c r="AS5">
+      <c r="AS5" t="n">
         <v>30793.612131</v>
       </c>
-      <c r="AT5">
+      <c r="AT5" t="n">
         <v>26663.432917</v>
       </c>
-      <c r="AU5">
+      <c r="AU5" t="n">
         <v>29091.504392</v>
       </c>
-      <c r="AV5">
+      <c r="AV5" t="n">
         <v>27459.670807</v>
       </c>
-      <c r="AW5">
+      <c r="AW5" t="n">
         <v>30804.643108</v>
       </c>
-      <c r="AX5">
+      <c r="AX5" t="n">
         <v>28336.433348</v>
       </c>
-      <c r="AY5">
+      <c r="AY5" t="n">
         <v>30878.434955</v>
       </c>
-      <c r="AZ5">
+      <c r="AZ5" t="n">
         <v>28904.801086</v>
       </c>
-      <c r="BA5">
+      <c r="BA5" t="n">
         <v>32195.782915</v>
       </c>
-      <c r="BB5">
+      <c r="BB5" t="n">
         <v>29208.921783</v>
       </c>
-      <c r="BC5">
+      <c r="BC5" t="n">
         <v>31447.6794</v>
       </c>
-      <c r="BD5">
+      <c r="BD5" t="n">
         <v>29291.415612</v>
       </c>
-      <c r="BE5">
+      <c r="BE5" t="n">
         <v>32945.980774</v>
       </c>
-      <c r="BF5">
+      <c r="BF5" t="n">
         <v>30468.512634</v>
       </c>
-      <c r="BG5">
+      <c r="BG5" t="n">
         <v>32862.403365</v>
       </c>
-      <c r="BH5">
+      <c r="BH5" t="n">
         <v>30952.137906</v>
       </c>
-      <c r="BI5">
+      <c r="BI5" t="n">
         <v>34961.199092</v>
       </c>
-      <c r="BJ5">
+      <c r="BJ5" t="n">
         <v>32259.994381</v>
       </c>
-      <c r="BK5">
+      <c r="BK5" t="n">
         <v>34771.721104</v>
       </c>
-      <c r="BL5">
+      <c r="BL5" t="n">
         <v>32508.66199</v>
       </c>
-      <c r="BM5">
+      <c r="BM5" t="n">
         <v>36255.386882</v>
       </c>
-      <c r="BN5">
+      <c r="BN5" t="n">
         <v>33567.548629</v>
       </c>
-      <c r="BO5">
+      <c r="BO5" t="n">
         <v>36607.962624</v>
       </c>
-      <c r="BP5">
+      <c r="BP5" t="n">
         <v>33907.858204</v>
       </c>
-      <c r="BQ5">
+      <c r="BQ5" t="n">
         <v>38102.049215</v>
       </c>
-      <c r="BR5">
+      <c r="BR5" t="n">
         <v>34819.992963</v>
       </c>
-      <c r="BS5">
+      <c r="BS5" t="n">
         <v>38377.116318</v>
       </c>
-      <c r="BT5">
+      <c r="BT5" t="n">
         <v>35597.219898</v>
       </c>
-      <c r="BU5">
+      <c r="BU5" t="n">
         <v>40156.271296</v>
       </c>
-      <c r="BV5">
+      <c r="BV5" t="n">
         <v>36609.51172</v>
       </c>
-      <c r="BW5">
+      <c r="BW5" t="n">
         <v>40547.011005</v>
       </c>
-      <c r="BX5">
+      <c r="BX5" t="n">
         <v>37574.127541</v>
       </c>
-      <c r="BY5">
+      <c r="BY5" t="n">
         <v>42230.214953</v>
       </c>
-      <c r="BZ5">
+      <c r="BZ5" t="n">
         <v>38313.805304</v>
       </c>
-      <c r="CA5">
+      <c r="CA5" t="n">
         <v>42765.087049</v>
       </c>
-      <c r="CB5">
+      <c r="CB5" t="n">
         <v>39768.327999</v>
       </c>
-      <c r="CC5">
+      <c r="CC5" t="n">
         <v>44334.697552</v>
       </c>
-      <c r="CD5">
+      <c r="CD5" t="n">
         <v>40160.316746</v>
       </c>
-      <c r="CE5">
+      <c r="CE5" t="n">
         <v>44802.517471</v>
       </c>
-      <c r="CF5">
+      <c r="CF5" t="n">
         <v>41579.441547</v>
       </c>
-      <c r="CG5">
+      <c r="CG5" t="n">
         <v>46466.132475</v>
       </c>
-      <c r="CH5">
+      <c r="CH5" t="n">
         <v>41896.844509</v>
       </c>
-      <c r="CI5">
+      <c r="CI5" t="n">
         <v>46638.424949</v>
       </c>
-      <c r="CJ5">
+      <c r="CJ5" t="n">
         <v>43579.316124</v>
       </c>
-      <c r="CK5">
+      <c r="CK5" t="n">
         <v>48839.330615</v>
       </c>
-      <c r="CL5">
+      <c r="CL5" t="n">
         <v>41040.79968</v>
       </c>
-      <c r="CM5">
+      <c r="CM5" t="n">
         <v>38217.953089</v>
       </c>
-      <c r="CN5">
+      <c r="CN5" t="n">
         <v>38019.891575</v>
       </c>
-      <c r="CO5">
+      <c r="CO5" t="n">
         <v>44218.137965</v>
       </c>
-      <c r="CP5">
+      <c r="CP5" t="n">
         <v>38953.482731</v>
       </c>
-      <c r="CQ5">
+      <c r="CQ5" t="n">
         <v>42290.592662</v>
       </c>
-      <c r="CR5">
+      <c r="CR5" t="n">
         <v>40161.082403</v>
       </c>
-      <c r="CS5">
+      <c r="CS5" t="n">
         <v>47051.189483</v>
       </c>
-      <c r="CT5">
+      <c r="CT5" t="n">
         <v>41643.17185</v>
       </c>
-      <c r="CU5" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV5" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW5" t="s">
-        <v>106</v>
+      <c r="CU5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CV5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CW5" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="6" spans="1:101">
-      <c r="A6" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="B6">
+    <row r="6">
+      <c r="A6" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita Gross National Income at constant prices</t>
+        </is>
+      </c>
+      <c r="B6" t="n">
         <v>22848.4323934496</v>
       </c>
-      <c r="C6">
+      <c r="C6" t="n">
         <v>22890.4755585873</v>
       </c>
-      <c r="D6">
+      <c r="D6" t="n">
         <v>22750.2755031259</v>
       </c>
-      <c r="E6">
+      <c r="E6" t="n">
         <v>24561.8802227855</v>
       </c>
-      <c r="F6">
+      <c r="F6" t="n">
         <v>22503.226599289</v>
       </c>
-      <c r="G6">
+      <c r="G6" t="n">
         <v>23069.0017990516</v>
       </c>
-      <c r="H6">
+      <c r="H6" t="n">
         <v>22851.5358056008</v>
       </c>
-      <c r="I6">
+      <c r="I6" t="n">
         <v>25114.8575446469</v>
       </c>
-      <c r="J6">
+      <c r="J6" t="n">
         <v>24020.866626</v>
       </c>
-      <c r="K6">
+      <c r="K6" t="n">
         <v>24706.65928</v>
       </c>
-      <c r="L6">
+      <c r="L6" t="n">
         <v>24298.075306</v>
       </c>
-      <c r="M6">
+      <c r="M6" t="n">
         <v>26957.472281</v>
       </c>
-      <c r="N6">
+      <c r="N6" t="n">
         <v>23961.736578</v>
       </c>
-      <c r="O6">
+      <c r="O6" t="n">
         <v>25360.313866</v>
       </c>
-      <c r="P6">
+      <c r="P6" t="n">
         <v>24754.839241</v>
       </c>
-      <c r="Q6">
+      <c r="Q6" t="n">
         <v>26822.333595</v>
       </c>
-      <c r="R6">
+      <c r="R6" t="n">
         <v>24626.623092</v>
       </c>
-      <c r="S6">
+      <c r="S6" t="n">
         <v>25343.948273</v>
       </c>
-      <c r="T6">
+      <c r="T6" t="n">
         <v>24634.454159</v>
       </c>
-      <c r="U6">
+      <c r="U6" t="n">
         <v>27879.267207</v>
       </c>
-      <c r="V6">
+      <c r="V6" t="n">
         <v>24977.268425</v>
       </c>
-      <c r="W6">
+      <c r="W6" t="n">
         <v>26115.46882</v>
       </c>
-      <c r="X6">
+      <c r="X6" t="n">
         <v>25705.782262</v>
       </c>
-      <c r="Y6">
+      <c r="Y6" t="n">
         <v>28647.548268</v>
       </c>
-      <c r="Z6">
+      <c r="Z6" t="n">
         <v>26305.683603</v>
       </c>
-      <c r="AA6">
+      <c r="AA6" t="n">
         <v>27520.749121</v>
       </c>
-      <c r="AB6">
+      <c r="AB6" t="n">
         <v>26654.573015</v>
       </c>
-      <c r="AC6">
+      <c r="AC6" t="n">
         <v>29560.439925</v>
       </c>
-      <c r="AD6">
+      <c r="AD6" t="n">
         <v>27094.607477</v>
       </c>
-      <c r="AE6">
+      <c r="AE6" t="n">
         <v>28360.081288</v>
       </c>
-      <c r="AF6">
+      <c r="AF6" t="n">
         <v>27403.693892</v>
       </c>
-      <c r="AG6">
+      <c r="AG6" t="n">
         <v>30751.70373</v>
       </c>
-      <c r="AH6">
+      <c r="AH6" t="n">
         <v>27665.391779</v>
       </c>
-      <c r="AI6">
+      <c r="AI6" t="n">
         <v>29600.87554</v>
       </c>
-      <c r="AJ6">
+      <c r="AJ6" t="n">
         <v>27761.447319</v>
       </c>
-      <c r="AK6">
+      <c r="AK6" t="n">
         <v>31744.638141</v>
       </c>
-      <c r="AL6">
+      <c r="AL6" t="n">
         <v>28526.19365</v>
       </c>
-      <c r="AM6">
+      <c r="AM6" t="n">
         <v>31007.766099</v>
       </c>
-      <c r="AN6">
+      <c r="AN6" t="n">
         <v>29378.109367</v>
       </c>
-      <c r="AO6">
+      <c r="AO6" t="n">
         <v>32983.744015</v>
       </c>
-      <c r="AP6">
+      <c r="AP6" t="n">
         <v>29215.881434</v>
       </c>
-      <c r="AQ6">
+      <c r="AQ6" t="n">
         <v>31860.389119</v>
       </c>
-      <c r="AR6">
+      <c r="AR6" t="n">
         <v>30271.718086</v>
       </c>
-      <c r="AS6">
+      <c r="AS6" t="n">
         <v>33953.064758</v>
       </c>
-      <c r="AT6">
+      <c r="AT6" t="n">
         <v>29610.695548</v>
       </c>
-      <c r="AU6">
+      <c r="AU6" t="n">
         <v>32703.519795</v>
       </c>
-      <c r="AV6">
+      <c r="AV6" t="n">
         <v>30847.10063</v>
       </c>
-      <c r="AW6">
+      <c r="AW6" t="n">
         <v>34460.284061</v>
       </c>
-      <c r="AX6">
+      <c r="AX6" t="n">
         <v>31832.527165</v>
       </c>
-      <c r="AY6">
+      <c r="AY6" t="n">
         <v>34513.921663</v>
       </c>
-      <c r="AZ6">
+      <c r="AZ6" t="n">
         <v>32245.633881</v>
       </c>
-      <c r="BA6">
+      <c r="BA6" t="n">
         <v>35734.891248</v>
       </c>
-      <c r="BB6">
+      <c r="BB6" t="n">
         <v>32610.325941</v>
       </c>
-      <c r="BC6">
+      <c r="BC6" t="n">
         <v>34794.842709</v>
       </c>
-      <c r="BD6">
+      <c r="BD6" t="n">
         <v>32476.786763</v>
       </c>
-      <c r="BE6">
+      <c r="BE6" t="n">
         <v>36638.596578</v>
       </c>
-      <c r="BF6">
+      <c r="BF6" t="n">
         <v>33822.358125</v>
       </c>
-      <c r="BG6">
+      <c r="BG6" t="n">
         <v>36576.861735</v>
       </c>
-      <c r="BH6">
+      <c r="BH6" t="n">
         <v>34504.463921</v>
       </c>
-      <c r="BI6">
+      <c r="BI6" t="n">
         <v>38890.270638</v>
       </c>
-      <c r="BJ6">
+      <c r="BJ6" t="n">
         <v>36146.895254</v>
       </c>
-      <c r="BK6">
+      <c r="BK6" t="n">
         <v>38609.635431</v>
       </c>
-      <c r="BL6">
+      <c r="BL6" t="n">
         <v>36739.976041</v>
       </c>
-      <c r="BM6">
+      <c r="BM6" t="n">
         <v>40549.04101</v>
       </c>
-      <c r="BN6">
+      <c r="BN6" t="n">
         <v>37791.468083</v>
       </c>
-      <c r="BO6">
+      <c r="BO6" t="n">
         <v>40749.152544</v>
       </c>
-      <c r="BP6">
+      <c r="BP6" t="n">
         <v>37983.922616</v>
       </c>
-      <c r="BQ6">
+      <c r="BQ6" t="n">
         <v>42427.688674</v>
       </c>
-      <c r="BR6">
+      <c r="BR6" t="n">
         <v>39088.835743</v>
       </c>
-      <c r="BS6">
+      <c r="BS6" t="n">
         <v>42512.707658</v>
       </c>
-      <c r="BT6">
+      <c r="BT6" t="n">
         <v>39722.957692</v>
       </c>
-      <c r="BU6">
+      <c r="BU6" t="n">
         <v>44829.920715</v>
       </c>
-      <c r="BV6">
+      <c r="BV6" t="n">
         <v>41153.165267</v>
       </c>
-      <c r="BW6">
+      <c r="BW6" t="n">
         <v>44831.774625</v>
       </c>
-      <c r="BX6">
+      <c r="BX6" t="n">
         <v>41801.615698</v>
       </c>
-      <c r="BY6">
+      <c r="BY6" t="n">
         <v>46766.884398</v>
       </c>
-      <c r="BZ6">
+      <c r="BZ6" t="n">
         <v>43035.757082</v>
       </c>
-      <c r="CA6">
+      <c r="CA6" t="n">
         <v>47277.588037</v>
       </c>
-      <c r="CB6">
+      <c r="CB6" t="n">
         <v>44303.687549</v>
       </c>
-      <c r="CC6">
+      <c r="CC6" t="n">
         <v>48920.545137</v>
       </c>
-      <c r="CD6">
+      <c r="CD6" t="n">
         <v>44918.108715</v>
       </c>
-      <c r="CE6">
+      <c r="CE6" t="n">
         <v>49205.422209</v>
       </c>
-      <c r="CF6">
+      <c r="CF6" t="n">
         <v>46287.855969</v>
       </c>
-      <c r="CG6">
+      <c r="CG6" t="n">
         <v>51044.084565</v>
       </c>
-      <c r="CH6">
+      <c r="CH6" t="n">
         <v>46658.668143</v>
       </c>
-      <c r="CI6">
+      <c r="CI6" t="n">
         <v>51017.435248</v>
       </c>
-      <c r="CJ6">
+      <c r="CJ6" t="n">
         <v>48047.434817</v>
       </c>
-      <c r="CK6">
+      <c r="CK6" t="n">
         <v>53125.893026</v>
       </c>
-      <c r="CL6">
+      <c r="CL6" t="n">
         <v>45273.880277</v>
       </c>
-      <c r="CM6">
+      <c r="CM6" t="n">
         <v>41459.432026</v>
       </c>
-      <c r="CN6">
+      <c r="CN6" t="n">
         <v>40929.000448</v>
       </c>
-      <c r="CO6">
+      <c r="CO6" t="n">
         <v>46005.335928</v>
       </c>
-      <c r="CP6">
+      <c r="CP6" t="n">
         <v>39959.160192</v>
       </c>
-      <c r="CQ6">
+      <c r="CQ6" t="n">
         <v>43706.521884</v>
       </c>
-      <c r="CR6">
+      <c r="CR6" t="n">
         <v>41528.107725</v>
       </c>
-      <c r="CS6">
+      <c r="CS6" t="n">
         <v>49097.456046</v>
       </c>
-      <c r="CT6">
+      <c r="CT6" t="n">
         <v>43660.662689</v>
       </c>
-      <c r="CU6" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV6" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW6" t="s">
-        <v>106</v>
+      <c r="CU6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CV6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CW6" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
-    <row r="7" spans="1:101">
-      <c r="A7" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="B7">
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Per Capita Household Final Consumption Expenditure at constant prices</t>
+        </is>
+      </c>
+      <c r="B7" t="n">
         <v>15576.9227006331</v>
       </c>
-      <c r="C7">
+      <c r="C7" t="n">
         <v>16608.7286048602</v>
       </c>
-      <c r="D7">
+      <c r="D7" t="n">
         <v>16233.7098871944</v>
       </c>
-      <c r="E7">
+      <c r="E7" t="n">
         <v>17980.9268155877</v>
       </c>
-      <c r="F7">
+      <c r="F7" t="n">
         <v>15913.6578368986</v>
       </c>
-      <c r="G7">
+      <c r="G7" t="n">
         <v>16921.794229155</v>
       </c>
-      <c r="H7">
+      <c r="H7" t="n">
         <v>16456.6042012295</v>
       </c>
-      <c r="I7">
+      <c r="I7" t="n">
         <v>18323.3347639675</v>
       </c>
-      <c r="J7">
+      <c r="J7" t="n">
         <v>16271.210129</v>
       </c>
-      <c r="K7">
+      <c r="K7" t="n">
         <v>17503.007345</v>
       </c>
-      <c r="L7">
+      <c r="L7" t="n">
         <v>17067.030093</v>
       </c>
-      <c r="M7">
+      <c r="M7" t="n">
         <v>18940.28407</v>
       </c>
-      <c r="N7">
+      <c r="N7" t="n">
         <v>16627.13025</v>
       </c>
-      <c r="O7">
+      <c r="O7" t="n">
         <v>17395.356206</v>
       </c>
-      <c r="P7">
+      <c r="P7" t="n">
         <v>17462.008438</v>
       </c>
-      <c r="Q7">
+      <c r="Q7" t="n">
         <v>19503.172942</v>
       </c>
-      <c r="R7">
+      <c r="R7" t="n">
         <v>16859.033552</v>
       </c>
-      <c r="S7">
+      <c r="S7" t="n">
         <v>18111.960017</v>
       </c>
-      <c r="T7">
+      <c r="T7" t="n">
         <v>18172.987814</v>
       </c>
-      <c r="U7">
+      <c r="U7" t="n">
         <v>19919.664688</v>
       </c>
-      <c r="V7">
+      <c r="V7" t="n">
         <v>17632.400486</v>
       </c>
-      <c r="W7">
+      <c r="W7" t="n">
         <v>18591.993</v>
       </c>
-      <c r="X7">
+      <c r="X7" t="n">
         <v>18603.215448</v>
       </c>
-      <c r="Y7">
+      <c r="Y7" t="n">
         <v>20617.066046</v>
       </c>
-      <c r="Z7">
+      <c r="Z7" t="n">
         <v>18416.953613</v>
       </c>
-      <c r="AA7">
+      <c r="AA7" t="n">
         <v>19038.635506</v>
       </c>
-      <c r="AB7">
+      <c r="AB7" t="n">
         <v>19301.924793</v>
       </c>
-      <c r="AC7">
+      <c r="AC7" t="n">
         <v>21572.89275</v>
       </c>
-      <c r="AD7">
+      <c r="AD7" t="n">
         <v>18951.234897</v>
       </c>
-      <c r="AE7">
+      <c r="AE7" t="n">
         <v>19801.783263</v>
       </c>
-      <c r="AF7">
+      <c r="AF7" t="n">
         <v>19624.904034</v>
       </c>
-      <c r="AG7">
+      <c r="AG7" t="n">
         <v>21872.721977</v>
       </c>
-      <c r="AH7">
+      <c r="AH7" t="n">
         <v>19245.179113</v>
       </c>
-      <c r="AI7">
+      <c r="AI7" t="n">
         <v>20449.123929</v>
       </c>
-      <c r="AJ7">
+      <c r="AJ7" t="n">
         <v>19958.715543</v>
       </c>
-      <c r="AK7">
+      <c r="AK7" t="n">
         <v>22394.780864</v>
       </c>
-      <c r="AL7">
+      <c r="AL7" t="n">
         <v>19653.833342</v>
       </c>
-      <c r="AM7">
+      <c r="AM7" t="n">
         <v>21052.872245</v>
       </c>
-      <c r="AN7">
+      <c r="AN7" t="n">
         <v>20464.104702</v>
       </c>
-      <c r="AO7">
+      <c r="AO7" t="n">
         <v>23256.878116</v>
       </c>
-      <c r="AP7">
+      <c r="AP7" t="n">
         <v>20326.172238</v>
       </c>
-      <c r="AQ7">
+      <c r="AQ7" t="n">
         <v>21300.054578</v>
       </c>
-      <c r="AR7">
+      <c r="AR7" t="n">
         <v>20835.757182</v>
       </c>
-      <c r="AS7">
+      <c r="AS7" t="n">
         <v>23664.432984</v>
       </c>
-      <c r="AT7">
+      <c r="AT7" t="n">
         <v>20390.676492</v>
       </c>
-      <c r="AU7">
+      <c r="AU7" t="n">
         <v>21805.601467</v>
       </c>
-      <c r="AV7">
+      <c r="AV7" t="n">
         <v>20639.897794</v>
       </c>
-      <c r="AW7">
+      <c r="AW7" t="n">
         <v>23941.089966</v>
       </c>
-      <c r="AX7">
+      <c r="AX7" t="n">
         <v>20894.163258</v>
       </c>
-      <c r="AY7">
+      <c r="AY7" t="n">
         <v>21896.022142</v>
       </c>
-      <c r="AZ7">
+      <c r="AZ7" t="n">
         <v>20829.130544</v>
       </c>
-      <c r="BA7">
+      <c r="BA7" t="n">
         <v>24750.68989</v>
       </c>
-      <c r="BB7">
+      <c r="BB7" t="n">
         <v>21522.474096</v>
       </c>
-      <c r="BC7">
+      <c r="BC7" t="n">
         <v>22575.802861</v>
       </c>
-      <c r="BD7">
+      <c r="BD7" t="n">
         <v>21866.643862</v>
       </c>
-      <c r="BE7">
+      <c r="BE7" t="n">
         <v>25767.867548</v>
       </c>
-      <c r="BF7">
+      <c r="BF7" t="n">
         <v>22712.241253</v>
       </c>
-      <c r="BG7">
+      <c r="BG7" t="n">
         <v>23712.945553</v>
       </c>
-      <c r="BH7">
+      <c r="BH7" t="n">
         <v>22991.923676</v>
       </c>
-      <c r="BI7">
+      <c r="BI7" t="n">
         <v>26971.819389</v>
       </c>
-      <c r="BJ7">
+      <c r="BJ7" t="n">
         <v>23615.417428</v>
       </c>
-      <c r="BK7">
+      <c r="BK7" t="n">
         <v>24547.343881</v>
       </c>
-      <c r="BL7">
+      <c r="BL7" t="n">
         <v>24092.039669</v>
       </c>
-      <c r="BM7">
+      <c r="BM7" t="n">
         <v>28131.99933</v>
       </c>
-      <c r="BN7">
+      <c r="BN7" t="n">
         <v>24770.299178</v>
       </c>
-      <c r="BO7">
+      <c r="BO7" t="n">
         <v>25581.059945</v>
       </c>
-      <c r="BP7">
+      <c r="BP7" t="n">
         <v>24966.449456</v>
       </c>
-      <c r="BQ7">
+      <c r="BQ7" t="n">
         <v>29238.482199</v>
       </c>
-      <c r="BR7">
+      <c r="BR7" t="n">
         <v>25914.312284</v>
       </c>
-      <c r="BS7">
+      <c r="BS7" t="n">
         <v>26848.844036</v>
       </c>
-      <c r="BT7">
+      <c r="BT7" t="n">
         <v>26144.774752</v>
       </c>
-      <c r="BU7">
+      <c r="BU7" t="n">
         <v>30723.48223</v>
       </c>
-      <c r="BV7">
+      <c r="BV7" t="n">
         <v>27319.025387</v>
       </c>
-      <c r="BW7">
+      <c r="BW7" t="n">
         <v>28383.288213</v>
       </c>
-      <c r="BX7">
+      <c r="BX7" t="n">
         <v>27583.455057</v>
       </c>
-      <c r="BY7">
+      <c r="BY7" t="n">
         <v>32242.813117</v>
       </c>
-      <c r="BZ7">
+      <c r="BZ7" t="n">
         <v>28479.024761</v>
       </c>
-      <c r="CA7">
+      <c r="CA7" t="n">
         <v>29620.244722</v>
       </c>
-      <c r="CB7">
+      <c r="CB7" t="n">
         <v>28640.367025</v>
       </c>
-      <c r="CC7">
+      <c r="CC7" t="n">
         <v>33733.516276</v>
       </c>
-      <c r="CD7">
+      <c r="CD7" t="n">
         <v>29673.619158</v>
       </c>
-      <c r="CE7">
+      <c r="CE7" t="n">
         <v>30978.354436</v>
       </c>
-      <c r="CF7">
+      <c r="CF7" t="n">
         <v>29773.653607</v>
       </c>
-      <c r="CG7">
+      <c r="CG7" t="n">
         <v>35072.891263</v>
       </c>
-      <c r="CH7">
+      <c r="CH7" t="n">
         <v>31059.897034</v>
       </c>
-      <c r="CI7">
+      <c r="CI7" t="n">
         <v>32231.213565</v>
       </c>
-      <c r="CJ7">
+      <c r="CJ7" t="n">
         <v>31105.402429</v>
       </c>
-      <c r="CK7">
+      <c r="CK7" t="n">
         <v>36556.923356</v>
       </c>
-      <c r="CL7">
+      <c r="CL7" t="n">
         <v>30681.168336</v>
       </c>
-      <c r="CM7">
+      <c r="CM7" t="n">
         <v>26915.628742</v>
       </c>
-      <c r="CN7">
+      <c r="CN7" t="n">
         <v>27857.233723</v>
       </c>
-      <c r="CO7">
+      <c r="CO7" t="n">
         <v>33435.980744</v>
       </c>
-      <c r="CP7">
+      <c r="CP7" t="n">
         <v>28828.617364</v>
       </c>
-      <c r="CQ7">
+      <c r="CQ7" t="n">
         <v>28503.203342</v>
       </c>
-      <c r="CR7">
+      <c r="CR7" t="n">
         <v>29446.160291</v>
       </c>
-      <c r="CS7">
+      <c r="CS7" t="n">
         <v>35494.541117</v>
       </c>
-      <c r="CT7">
+      <c r="CT7" t="n">
         <v>31348.253254</v>
       </c>
-      <c r="CU7" t="s">
-        <v>106</v>
-      </c>
-      <c r="CV7" t="s">
-        <v>106</v>
-      </c>
-      <c r="CW7" t="s">
-        <v>106</v>
+      <c r="CU7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CV7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
+      </c>
+      <c r="CW7" t="inlineStr">
+        <is>
+          <t>..</t>
+        </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>